--- a/tables/20_45_fxnal-enrich-genetic-interactions/enrichr_results_COAD_G13D.xlsx
+++ b/tables/20_45_fxnal-enrich-genetic-interactions/enrichr_results_COAD_G13D.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="607">
   <si>
     <t>datasource</t>
   </si>
@@ -197,457 +197,1642 @@
     <t>52</t>
   </si>
   <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>Panther_2016</t>
+  </si>
+  <si>
+    <t>Reactome_2016</t>
+  </si>
+  <si>
+    <t>LINCS_L1000_Kinase_Perturbations_up</t>
+  </si>
+  <si>
     <t>WikiPathways_2019_Human</t>
   </si>
   <si>
-    <t>Panther_2016</t>
+    <t>BioCarta_2016</t>
+  </si>
+  <si>
+    <t>Transcription_Factor_PPIs</t>
   </si>
   <si>
     <t>KEGG_2019_Human</t>
   </si>
   <si>
-    <t>LINCS_L1000_Kinase_Perturbations_up</t>
-  </si>
-  <si>
     <t>LINCS_L1000_Kinase_Perturbations_down</t>
   </si>
   <si>
+    <t>PPI_Hub_Proteins</t>
+  </si>
+  <si>
+    <t>KEA_2015</t>
+  </si>
+  <si>
+    <t>Cadherin signaling pathway_Homo sapiens_P00012</t>
+  </si>
+  <si>
+    <t>Diseases of glycosylation_Homo sapiens_R-HSA-3781865</t>
+  </si>
+  <si>
+    <t>PI3 kinase pathway_Homo sapiens_P00048</t>
+  </si>
+  <si>
+    <t>EIF2AK1_knockdown_96h_HA1E</t>
+  </si>
+  <si>
+    <t>Wnt signaling pathway_Homo sapiens_P00057</t>
+  </si>
+  <si>
+    <t>Insulin/IGF pathway-mitogen activated protein kinase kinase/MAP kinase cascade_Homo sapiens_P00032</t>
+  </si>
+  <si>
     <t>Pathways Regulating Hippo Signaling WP4540</t>
   </si>
   <si>
-    <t>Wnt signaling pathway_Homo sapiens_P00057</t>
+    <t>STK38L_knockdown_96h_HA1E</t>
+  </si>
+  <si>
+    <t>Diseases associated with O-glycosylation of proteins_Homo sapiens_R-HSA-3906995</t>
+  </si>
+  <si>
+    <t>Interaction between L1 and Ankyrins_Homo sapiens_R-HSA-445095</t>
+  </si>
+  <si>
+    <t>Cell Cycle: G2/M Checkpoint_Homo sapiens_h_g2Pathway</t>
+  </si>
+  <si>
+    <t>Insulin/IGF pathway-protein kinase B signaling cascade_Homo sapiens_P00033</t>
+  </si>
+  <si>
+    <t>Insulin Signaling Pathway_Homo sapiens_h_insulinPathway</t>
+  </si>
+  <si>
+    <t>Defective GALNT3 causes familial hyperphosphatemic tumoral calcinosis (HFTC)_Homo sapiens_R-HSA-5083625</t>
+  </si>
+  <si>
+    <t>Defective GALNT12 causes colorectal cancer 1 (CRCS1)_Homo sapiens_R-HSA-5083636</t>
+  </si>
+  <si>
+    <t>Defective C1GALT1C1 causes Tn polyagglutination syndrome (TNPS)_Homo sapiens_R-HSA-5083632</t>
+  </si>
+  <si>
+    <t>SIN3B</t>
+  </si>
+  <si>
+    <t>SMAD3</t>
+  </si>
+  <si>
+    <t>Integrated Breast Cancer Pathway WP1984</t>
+  </si>
+  <si>
+    <t>Huntington disease_Homo sapiens_P00029</t>
+  </si>
+  <si>
+    <t>SMARCA4</t>
+  </si>
+  <si>
+    <t>Regulation of lipolysis in adipocytes</t>
+  </si>
+  <si>
+    <t>MYC</t>
+  </si>
+  <si>
+    <t>PDPK1_knockdown_96h_HA1E</t>
+  </si>
+  <si>
+    <t>PTK2B_knockdown_96h_PC3</t>
+  </si>
+  <si>
+    <t>GPR107_knockdown_96h_PC3</t>
+  </si>
+  <si>
+    <t>MAP3K14_knockdown_96h_PC3</t>
+  </si>
+  <si>
+    <t>Growth Hormone Signaling Pathway_Homo sapiens_h_ghPathway</t>
+  </si>
+  <si>
+    <t>MAPK3_knockdown_96h_MCF7</t>
+  </si>
+  <si>
+    <t>Prostate cancer</t>
+  </si>
+  <si>
+    <t>GABAergic synapse</t>
+  </si>
+  <si>
+    <t>ACVR1_knockdown_96h_MCF7</t>
+  </si>
+  <si>
+    <t>mTOR signaling pathway</t>
+  </si>
+  <si>
+    <t>KCNQ1_knockdown_96h_HA1E</t>
+  </si>
+  <si>
+    <t>CHUK_knockdown_96h_HT29</t>
+  </si>
+  <si>
+    <t>Thyroid cancer</t>
+  </si>
+  <si>
+    <t>Non-small cell lung cancer</t>
+  </si>
+  <si>
+    <t>ZBTB33</t>
+  </si>
+  <si>
+    <t>PIK3R1</t>
+  </si>
+  <si>
+    <t>Longevity regulating pathway</t>
+  </si>
+  <si>
+    <t>PROKR2_knockdown_96h_HEPG2</t>
+  </si>
+  <si>
+    <t>Relaxin signaling pathway</t>
+  </si>
+  <si>
+    <t>Rap1 signaling pathway</t>
+  </si>
+  <si>
+    <t>Aldosterone-regulated sodium reabsorption</t>
   </si>
   <si>
     <t>Cushing syndrome</t>
   </si>
   <si>
-    <t>Thyroid cancer</t>
-  </si>
-  <si>
-    <t>Prostate cancer</t>
-  </si>
-  <si>
-    <t>GABAergic synapse</t>
-  </si>
-  <si>
-    <t>Rap1 signaling pathway</t>
+    <t>Vasopressin-regulated water reabsorption</t>
+  </si>
+  <si>
+    <t>Colorectal cancer</t>
+  </si>
+  <si>
+    <t>MAPK8</t>
+  </si>
+  <si>
+    <t>SMARCC1</t>
+  </si>
+  <si>
+    <t>SMAD2</t>
+  </si>
+  <si>
+    <t>RXFP4_knockdown_96h_PC3</t>
+  </si>
+  <si>
+    <t>Intraflagellar transport proteins binding to dynein WP4532</t>
+  </si>
+  <si>
+    <t>Gastric acid secretion</t>
+  </si>
+  <si>
+    <t>MRGPRX3_knockdown_96h_HEPG2</t>
+  </si>
+  <si>
+    <t>FYN_knockdown_96h_PC3</t>
+  </si>
+  <si>
+    <t>Ovarian steroidogenesis</t>
+  </si>
+  <si>
+    <t>TESK1_knockdown_96h_HA1E</t>
+  </si>
+  <si>
+    <t>NFKB2</t>
+  </si>
+  <si>
+    <t>STK25_knockdown_96h_HA1E</t>
+  </si>
+  <si>
+    <t>STK33_knockdown_96h_PC3</t>
+  </si>
+  <si>
+    <t>OPN5_knockdown_96h_PC3</t>
+  </si>
+  <si>
+    <t>SHC1</t>
+  </si>
+  <si>
+    <t>Lysine degradation</t>
+  </si>
+  <si>
+    <t>MELK_knockdown_96h_PC3</t>
+  </si>
+  <si>
+    <t>GRK6_knockdown_96h_A549</t>
+  </si>
+  <si>
+    <t>LGR6_knockdown_96h_HA1E</t>
+  </si>
+  <si>
+    <t>IGF1R_knockdown_96h_PC3</t>
+  </si>
+  <si>
+    <t>GPR64_knockdown_96h_PC3</t>
+  </si>
+  <si>
+    <t>GPR160_knockdown_96h_HEPG2</t>
+  </si>
+  <si>
+    <t>GRPR_knockdown_96h_PC3</t>
+  </si>
+  <si>
+    <t>CSNK1A1</t>
+  </si>
+  <si>
+    <t>L1CAM interactions_Homo sapiens_R-HSA-373760</t>
+  </si>
+  <si>
+    <t>GPR151_knockdown_96h_PC3</t>
+  </si>
+  <si>
+    <t>Termination of O-glycan biosynthesis_Homo sapiens_R-HSA-977068</t>
+  </si>
+  <si>
+    <t>PLK1</t>
+  </si>
+  <si>
+    <t>GPBAR1_knockdown_96h_PC3</t>
+  </si>
+  <si>
+    <t>GPR31_knockdown_96h_HA1E</t>
+  </si>
+  <si>
+    <t>HSP90AA1</t>
+  </si>
+  <si>
+    <t>ADORA2B_knockdown_96h_PC3</t>
+  </si>
+  <si>
+    <t>RPS6KA3</t>
+  </si>
+  <si>
+    <t>ADORA2A_knockdown_96h_PC3</t>
+  </si>
+  <si>
+    <t>Glutamatergic synapse</t>
+  </si>
+  <si>
+    <t>STK11_knockdown_96h_MCF7</t>
+  </si>
+  <si>
+    <t>FZD5_knockdown_96h_HA1E</t>
+  </si>
+  <si>
+    <t>KDR_knockdown_96h_MCF7</t>
+  </si>
+  <si>
+    <t>SGK1</t>
+  </si>
+  <si>
+    <t>RXFP4_knockdown_96h_HT29</t>
+  </si>
+  <si>
+    <t>CREB1</t>
   </si>
   <si>
     <t>Endometrial cancer</t>
   </si>
   <si>
-    <t>Cadherin signaling pathway_Homo sapiens_P00012</t>
-  </si>
-  <si>
-    <t>PI3 kinase pathway_Homo sapiens_P00048</t>
-  </si>
-  <si>
-    <t>Colorectal cancer</t>
-  </si>
-  <si>
-    <t>KCNQ1_knockdown_96h_HA1E</t>
-  </si>
-  <si>
-    <t>Regulation of lipolysis in adipocytes</t>
-  </si>
-  <si>
-    <t>Ovarian steroidogenesis</t>
-  </si>
-  <si>
-    <t>mTOR signaling pathway</t>
-  </si>
-  <si>
-    <t>PDPK1_knockdown_96h_HA1E</t>
-  </si>
-  <si>
-    <t>Non-small cell lung cancer</t>
-  </si>
-  <si>
-    <t>Long-term depression</t>
-  </si>
-  <si>
-    <t>Lysine degradation</t>
-  </si>
-  <si>
-    <t>Bladder cancer</t>
-  </si>
-  <si>
-    <t>Chronic myeloid leukemia</t>
-  </si>
-  <si>
-    <t>Glioma</t>
-  </si>
-  <si>
-    <t>Acute myeloid leukemia</t>
-  </si>
-  <si>
-    <t>Longevity regulating pathway</t>
-  </si>
-  <si>
-    <t>Aldosterone-regulated sodium reabsorption</t>
-  </si>
-  <si>
-    <t>Sphingolipid signaling pathway</t>
-  </si>
-  <si>
-    <t>Human T-cell leukemia virus 1 infection</t>
-  </si>
-  <si>
-    <t>Parathyroid hormone synthesis, secretion and action</t>
-  </si>
-  <si>
-    <t>Gastric acid secretion</t>
-  </si>
-  <si>
-    <t>Relaxin signaling pathway</t>
-  </si>
-  <si>
-    <t>Glutamatergic synapse</t>
-  </si>
-  <si>
-    <t>Serotonergic synapse</t>
-  </si>
-  <si>
-    <t>Cholinergic synapse</t>
-  </si>
-  <si>
-    <t>Vasopressin-regulated water reabsorption</t>
-  </si>
-  <si>
-    <t>Cortisol synthesis and secretion</t>
+    <t>PRKCH_knockdown_96h_HT29</t>
+  </si>
+  <si>
+    <t>ERBB2_knockdown_96h_HA1E</t>
+  </si>
+  <si>
+    <t>MTOR</t>
+  </si>
+  <si>
+    <t>OXTR_knockdown_96h_HT29</t>
+  </si>
+  <si>
+    <t>PRKCA_knockdown_96h_MCF7</t>
+  </si>
+  <si>
+    <t>CHUK_knockdown_96h_HEPG2</t>
+  </si>
+  <si>
+    <t>GSK3B</t>
+  </si>
+  <si>
+    <t>SMAD4</t>
+  </si>
+  <si>
+    <t>WEE1_knockdown_96h_PC3</t>
+  </si>
+  <si>
+    <t>CSNK1G3_knockdown_96h_HT29</t>
+  </si>
+  <si>
+    <t>Signaling Pathways in Glioblastoma WP2261</t>
+  </si>
+  <si>
+    <t>TBXA2R_knockdown_96h_PC3</t>
+  </si>
+  <si>
+    <t>SYK_knockdown_96h_PC3</t>
+  </si>
+  <si>
+    <t>STK36_knockdown_96h_PC3</t>
+  </si>
+  <si>
+    <t>RXRG_knockdown_96h_HEPG2</t>
+  </si>
+  <si>
+    <t>ABL2_knockdown_96h_HA1E</t>
+  </si>
+  <si>
+    <t>PXK_knockdown_96h_PC3</t>
+  </si>
+  <si>
+    <t>YWHAB</t>
+  </si>
+  <si>
+    <t>Disease_Homo sapiens_R-HSA-1643685</t>
+  </si>
+  <si>
+    <t>PRKCH_knockdown_96h_PC3</t>
+  </si>
+  <si>
+    <t>ROCK2_knockdown_96h_HEPG2</t>
+  </si>
+  <si>
+    <t>PRKACA_knockdown_96h_PC3</t>
+  </si>
+  <si>
+    <t>Non-small cell lung cancer WP4255</t>
+  </si>
+  <si>
+    <t>PKN1_knockdown_96h_PC3</t>
+  </si>
+  <si>
+    <t>OPN4_knockdown_96h_PC3</t>
+  </si>
+  <si>
+    <t>ATM</t>
+  </si>
+  <si>
+    <t>GPR123_knockdown_96h_HEPG2</t>
+  </si>
+  <si>
+    <t>MAPKAPK3_knockdown_96h_PC3</t>
   </si>
   <si>
     <t>Neurotrophin signaling pathway</t>
   </si>
   <si>
-    <t>Progesterone-mediated oocyte maturation</t>
-  </si>
-  <si>
-    <t>Melanoma</t>
-  </si>
-  <si>
-    <t>Proteoglycans in cancer</t>
-  </si>
-  <si>
-    <t>Melanogenesis</t>
-  </si>
-  <si>
-    <t>Morphine addiction</t>
-  </si>
-  <si>
-    <t>Bile secretion</t>
+    <t>MAP2K6_knockdown_96h_PC3</t>
+  </si>
+  <si>
+    <t>Interleukin signaling pathway_Homo sapiens_P00036</t>
+  </si>
+  <si>
+    <t>IKBKB_knockdown_96h_PC3</t>
+  </si>
+  <si>
+    <t>OR5W2_knockdown_96h_HCC515</t>
+  </si>
+  <si>
+    <t>GRK6_knockdown_96h_PC3</t>
+  </si>
+  <si>
+    <t>PDGFRA_knockdown_96h_A549</t>
+  </si>
+  <si>
+    <t>GPRC5B_knockdown_96h_PC3</t>
+  </si>
+  <si>
+    <t>CDK1</t>
+  </si>
+  <si>
+    <t>GPR62_knockdown_96h_PC3</t>
+  </si>
+  <si>
+    <t>O3FAR1_knockdown_96h_HCC515</t>
+  </si>
+  <si>
+    <t>SIN3A</t>
+  </si>
+  <si>
+    <t>GPR55_knockdown_96h_PC3</t>
+  </si>
+  <si>
+    <t>GPR142_knockdown_96h_PC3</t>
+  </si>
+  <si>
+    <t>GABBR2_knockdown_96h_PC3</t>
+  </si>
+  <si>
+    <t>MAPK13_knockdown_96h_HCC515</t>
+  </si>
+  <si>
+    <t>EIF2AK1_knockdown_96h_PC3</t>
+  </si>
+  <si>
+    <t>CAMKK2_knockdown_96h_PC3</t>
+  </si>
+  <si>
+    <t>EPHB4_knockdown_96h_HCC515</t>
+  </si>
+  <si>
+    <t>ABL1_knockdown_96h_PC3</t>
+  </si>
+  <si>
+    <t>MAPKAPK2_knockdown_96h_A549</t>
+  </si>
+  <si>
+    <t>PTK7_knockdown_96h_MCF7</t>
+  </si>
+  <si>
+    <t>TP63</t>
+  </si>
+  <si>
+    <t>PPARD_knockdown_96h_MCF7</t>
   </si>
   <si>
     <t>Human Thyroid Stimulating Hormone (TSH) signaling pathway WP2032</t>
   </si>
   <si>
-    <t>Platelet activation</t>
-  </si>
-  <si>
-    <t>Taste transduction</t>
+    <t>CXCR7_knockdown_96h_HCC515</t>
+  </si>
+  <si>
+    <t>PIM1_knockdown_96h_MCF7</t>
+  </si>
+  <si>
+    <t>MAST4_knockdown_96h_MCF7</t>
+  </si>
+  <si>
+    <t>FOXA1</t>
+  </si>
+  <si>
+    <t>IKBKB_knockdown_96h_MCF7</t>
+  </si>
+  <si>
+    <t>CHRM3_knockdown_96h_HCC515</t>
+  </si>
+  <si>
+    <t>PRKCA_knockdown_96h_HCC515</t>
+  </si>
+  <si>
+    <t>SIK3_knockdown_96h_A375</t>
+  </si>
+  <si>
+    <t>HIPK1_knockdown_96h_MCF7</t>
+  </si>
+  <si>
+    <t>DNA Damage Response (only ATM dependent) WP710</t>
+  </si>
+  <si>
+    <t>VDR_knockdown_96h_HT29</t>
+  </si>
+  <si>
+    <t>RPS6KB1</t>
+  </si>
+  <si>
+    <t>ERBB2_knockdown_96h_HT29</t>
+  </si>
+  <si>
+    <t>YWHAZ</t>
+  </si>
+  <si>
+    <t>VRK2_knockdown_96h_HA1E</t>
+  </si>
+  <si>
+    <t>CTNNB1</t>
+  </si>
+  <si>
+    <t>AURKA_knockdown_96h_HT29</t>
   </si>
   <si>
     <t>Endometrial cancer WP4155</t>
   </si>
   <si>
-    <t>Hippo-Merlin Signaling Dysregulation WP4541</t>
-  </si>
-  <si>
-    <t>Human cytomegalovirus infection</t>
-  </si>
-  <si>
-    <t>KCNG1_knockdown_96h_MCF7</t>
-  </si>
-  <si>
-    <t>EIF2AK1_knockdown_96h_HA1E</t>
-  </si>
-  <si>
-    <t>Gap junction</t>
-  </si>
-  <si>
-    <t>GPR123_knockdown_96h_HEPG2</t>
+    <t>ADRA2C_knockdown_96h_A549</t>
+  </si>
+  <si>
+    <t>Pathways Affected in Adenoid Cystic Carcinoma WP3651</t>
+  </si>
+  <si>
+    <t>VRK2_knockdown_96h_HEPG2</t>
+  </si>
+  <si>
+    <t>YY1</t>
+  </si>
+  <si>
+    <t>STRADB_knockdown_96h_HEPG2</t>
+  </si>
+  <si>
+    <t>TBP</t>
+  </si>
+  <si>
+    <t>NOX1_knockdown_96h_HA1E</t>
+  </si>
+  <si>
+    <t>10/150</t>
+  </si>
+  <si>
+    <t>9/88</t>
+  </si>
+  <si>
+    <t>5/42</t>
+  </si>
+  <si>
+    <t>17/300</t>
+  </si>
+  <si>
+    <t>13/278</t>
+  </si>
+  <si>
+    <t>4/29</t>
   </si>
   <si>
     <t>8/98</t>
   </si>
   <si>
-    <t>11/278</t>
+    <t>16/300</t>
+  </si>
+  <si>
+    <t>7/62</t>
+  </si>
+  <si>
+    <t>5/29</t>
+  </si>
+  <si>
+    <t>4/22</t>
+  </si>
+  <si>
+    <t>4/34</t>
+  </si>
+  <si>
+    <t>3/11</t>
+  </si>
+  <si>
+    <t>4/18</t>
+  </si>
+  <si>
+    <t>4/20</t>
+  </si>
+  <si>
+    <t>6/55</t>
+  </si>
+  <si>
+    <t>15/375</t>
+  </si>
+  <si>
+    <t>10/151</t>
+  </si>
+  <si>
+    <t>7/124</t>
+  </si>
+  <si>
+    <t>11/219</t>
+  </si>
+  <si>
+    <t>29/957</t>
+  </si>
+  <si>
+    <t>15/300</t>
+  </si>
+  <si>
+    <t>14/300</t>
+  </si>
+  <si>
+    <t>7/97</t>
+  </si>
+  <si>
+    <t>6/89</t>
+  </si>
+  <si>
+    <t>8/152</t>
+  </si>
+  <si>
+    <t>4/37</t>
+  </si>
+  <si>
+    <t>5/66</t>
+  </si>
+  <si>
+    <t>3/17</t>
+  </si>
+  <si>
+    <t>14/301</t>
+  </si>
+  <si>
+    <t>6/102</t>
+  </si>
+  <si>
+    <t>7/130</t>
+  </si>
+  <si>
+    <t>9/206</t>
   </si>
   <si>
     <t>9/155</t>
   </si>
   <si>
-    <t>4/37</t>
-  </si>
-  <si>
-    <t>6/97</t>
-  </si>
-  <si>
-    <t>6/89</t>
-  </si>
-  <si>
-    <t>9/206</t>
+    <t>4/44</t>
+  </si>
+  <si>
+    <t>6/86</t>
+  </si>
+  <si>
+    <t>11/225</t>
+  </si>
+  <si>
+    <t>7/114</t>
+  </si>
+  <si>
+    <t>14/384</t>
+  </si>
+  <si>
+    <t>13/300</t>
+  </si>
+  <si>
+    <t>4/27</t>
+  </si>
+  <si>
+    <t>5/75</t>
+  </si>
+  <si>
+    <t>13/352</t>
+  </si>
+  <si>
+    <t>4/49</t>
+  </si>
+  <si>
+    <t>9/184</t>
+  </si>
+  <si>
+    <t>12/300</t>
+  </si>
+  <si>
+    <t>9/195</t>
+  </si>
+  <si>
+    <t>5/59</t>
+  </si>
+  <si>
+    <t>7/84</t>
+  </si>
+  <si>
+    <t>7/96</t>
+  </si>
+  <si>
+    <t>4/26</t>
+  </si>
+  <si>
+    <t>8/166</t>
+  </si>
+  <si>
+    <t>10/231</t>
+  </si>
+  <si>
+    <t>14/375</t>
+  </si>
+  <si>
+    <t>6/114</t>
+  </si>
+  <si>
+    <t>7/135</t>
+  </si>
+  <si>
+    <t>14/332</t>
+  </si>
+  <si>
+    <t>14/370</t>
   </si>
   <si>
     <t>5/58</t>
   </si>
   <si>
-    <t>8/150</t>
-  </si>
-  <si>
-    <t>4/42</t>
-  </si>
-  <si>
-    <t>6/86</t>
-  </si>
-  <si>
-    <t>14/300</t>
-  </si>
-  <si>
-    <t>5/55</t>
-  </si>
-  <si>
-    <t>4/49</t>
-  </si>
-  <si>
-    <t>7/152</t>
-  </si>
-  <si>
-    <t>13/300</t>
-  </si>
-  <si>
-    <t>4/66</t>
-  </si>
-  <si>
-    <t>4/60</t>
-  </si>
-  <si>
-    <t>4/59</t>
-  </si>
-  <si>
-    <t>3/41</t>
-  </si>
-  <si>
-    <t>4/76</t>
-  </si>
-  <si>
-    <t>4/75</t>
-  </si>
-  <si>
-    <t>5/102</t>
-  </si>
-  <si>
-    <t>3/37</t>
-  </si>
-  <si>
-    <t>5/119</t>
-  </si>
-  <si>
-    <t>8/219</t>
-  </si>
-  <si>
-    <t>5/106</t>
-  </si>
-  <si>
-    <t>6/130</t>
-  </si>
-  <si>
-    <t>5/114</t>
-  </si>
-  <si>
-    <t>5/113</t>
-  </si>
-  <si>
-    <t>5/112</t>
-  </si>
-  <si>
-    <t>3/44</t>
-  </si>
-  <si>
-    <t>4/65</t>
-  </si>
-  <si>
-    <t>5/99</t>
-  </si>
-  <si>
-    <t>4/72</t>
-  </si>
-  <si>
-    <t>7/201</t>
-  </si>
-  <si>
-    <t>5/101</t>
-  </si>
-  <si>
-    <t>5/91</t>
-  </si>
-  <si>
-    <t>5/66</t>
-  </si>
-  <si>
-    <t>5/124</t>
-  </si>
-  <si>
-    <t>4/83</t>
+    <t>7/138</t>
+  </si>
+  <si>
+    <t>20/696</t>
+  </si>
+  <si>
+    <t>10/245</t>
+  </si>
+  <si>
+    <t>11/300</t>
+  </si>
+  <si>
+    <t>6/82</t>
+  </si>
+  <si>
+    <t>22/812</t>
+  </si>
+  <si>
+    <t>23/725</t>
+  </si>
+  <si>
+    <t>9/222</t>
+  </si>
+  <si>
+    <t>6/119</t>
+  </si>
+  <si>
+    <t>5/86</t>
+  </si>
+  <si>
+    <t>19/659</t>
+  </si>
+  <si>
+    <t>7/134</t>
+  </si>
+  <si>
+    <t>8/183</t>
+  </si>
+  <si>
+    <t>9/214</t>
+  </si>
+  <si>
+    <t>13/328</t>
+  </si>
+  <si>
+    <t>6/120</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>7/110</t>
+  </si>
+  <si>
+    <t>15/500</t>
+  </si>
+  <si>
+    <t>13/398</t>
   </si>
   <si>
     <t>5/63</t>
   </si>
   <si>
-    <t>7/120</t>
-  </si>
-  <si>
-    <t>7/225</t>
-  </si>
-  <si>
-    <t>4/88</t>
-  </si>
-  <si>
-    <t>12/300</t>
+    <t>5/65</t>
+  </si>
+  <si>
+    <t>7/160</t>
+  </si>
+  <si>
+    <t>PCDHGA7;TCF7L2;PCDH7;PCDHB6;CDH12;PCDHB5;FAT3;CDH9;CDH8;PCDHA7</t>
+  </si>
+  <si>
+    <t>VCAN;MUC16;NOTCH4;CSPG4;MUC5B;ADAMTS9;MUC3A;ADAMTS20;MUC6</t>
+  </si>
+  <si>
+    <t>NRAS;PIK3CA;IRS1;INSR;GNB3</t>
+  </si>
+  <si>
+    <t>GABRQ;GPX5;GRIK3;GAD2;PRDM2;ZIC4;IGF2R;TAF7L;RAI1;ZNF507;PCBP1;ARMC4;HIVEP3;MASP2;ZNF385D;LCT;BAP1</t>
+  </si>
+  <si>
+    <t>PCDHGA7;TCF7L2;PCDH7;PPP2R5C;CDH9;CDH8;PCDHB6;CDH12;PCDHB5;GNB3;FAT3;TP53;PCDHA7</t>
+  </si>
+  <si>
+    <t>IRS1;INSR;RPS6KA1;IGF2R</t>
   </si>
   <si>
     <t>TCF7L2;FLT1;INSR;GNAS;CDH12;CDH9;CDH8;GNAI2</t>
   </si>
   <si>
-    <t>TCF7L2;PCDHB6;CDH12;PCDHB5;GNB3;FAT3;PPP2R5C;TP53;CDH9;PCDHA7;CDH8</t>
+    <t>MON2;FANCL;GPX5;PDE4DIP;GPR50;LARP4B;TM9SF4;IGF2R;AMOT;TAF7L;DHX30;ZFP64;NF1;ZNF335;LCT;OR7E24</t>
+  </si>
+  <si>
+    <t>MUC16;NOTCH4;MUC5B;ADAMTS9;MUC3A;ADAMTS20;MUC6</t>
+  </si>
+  <si>
+    <t>SCN9A;ANK2;SCN4A;ANK3;SCN3A</t>
+  </si>
+  <si>
+    <t>CHEK2;RPS6KA1;MYT1;TP53</t>
+  </si>
+  <si>
+    <t>PIK3CA;IRS1;INSR;IGF2R</t>
+  </si>
+  <si>
+    <t>PIK3CA;IRS1;INSR</t>
+  </si>
+  <si>
+    <t>MUC16;MUC5B;MUC3A;MUC6</t>
+  </si>
+  <si>
+    <t>AR;SIN3A;MYT1;TP53;HDAC9;ZBTB4</t>
+  </si>
+  <si>
+    <t>CFH;USP9X;IRS1;KRT2;NOTCH4;ANK3;CTCF;AR;DACH1;ZMIZ1;CYP11A1;SIN3A;NF1;SOX9;TP53</t>
+  </si>
+  <si>
+    <t>AR;ITPKC;IRS1;ZMIZ1;CHEK2;NF1;BRAF;AHR;MYT1;TP53</t>
+  </si>
+  <si>
+    <t>DYNC1H1;SIN3A;DNAH8;GRIK3;HAP1;TP53;DYNC1I1</t>
+  </si>
+  <si>
+    <t>AR;CAND1;SIN3A;CAD;DPF2;NF1;AHR;TP53;HDAC9;RELB;MCPH1</t>
+  </si>
+  <si>
+    <t>PIK3CA;IRS1;INSR;GNAS;ADCY6;GNAI2</t>
+  </si>
+  <si>
+    <t>NUP205;SAMD9L;FRMPD4;DNAH8;HEATR1;XYLT1;KNDC1;CTCF;SIPA1L3;SYNE1;TTN;PCBP1;HEATR2;SACS;CEP170;AASS;DYNC1H1;TFAP2C;USP9X;TIE1;MUC3A;IGF2R;LRP1B;PRRC2A;ADAMTS20;RFX7;MSH3;MAP7D1;TP53</t>
+  </si>
+  <si>
+    <t>DOCK3;FLT1;FRMPD4;IFT140;MCF2;GPR50;ZIC4;SIPA1L3;CDH9;LRP1B;PSG5;CYP11A1;SCN9A;BSN;RAB40AL</t>
+  </si>
+  <si>
+    <t>DENND2D;MON2;INSR;GAD2;CTCF;AHR;MKI67;MYO16;SLC9A3;SNTG2;PSG7;UBR5;LCT;RAB40AL</t>
+  </si>
+  <si>
+    <t>GABRQ;MON2;INSR;RANBP17;DOT1L;CD180;AP3B1;ZIC4;CTCF;MKI67;AFF3;MYT1;SNTG2;UBR5;RBM42;ZNF385D</t>
+  </si>
+  <si>
+    <t>GABRQ;CRTC1;MCF2;GPX5;HOXD12;GFRA3;AFF3;SLC9A3;RAI1;SNTG2;HIVEP3;ZNF335;XYLB;RAB40AL</t>
+  </si>
+  <si>
+    <t>PIK3CA;IRS1;INSR;RPS6KA1</t>
+  </si>
+  <si>
+    <t>CDKL5;CRTC1;CRYBB1;NOTCH4;GPX5;KIF24;GPR50;PRDM10;MYT1;IGF2R;SLC9A3;HAP1;ZNF335;RAB40AL</t>
+  </si>
+  <si>
+    <t>AR;TCF7L2;NRAS;PIK3CA;IL1R2;BRAF;TP53</t>
+  </si>
+  <si>
+    <t>GABRQ;GAD2;GNB3;HAP1;ADCY6;GNAI2</t>
+  </si>
+  <si>
+    <t>GABRQ;CDKL5;SAMD9;WSCD2;DOT1L;GAD2;PRDM10;LRP1B;ANKHD1;NR5A1;SLC9A3;CYP11A1;MASP2;BCAT1</t>
+  </si>
+  <si>
+    <t>NRAS;WDR59;PIK3CA;IRS1;INSR;RPS6KA1;BRAF;RICTOR</t>
+  </si>
+  <si>
+    <t>GABRQ;NFAT5;TFAP2C;DOCK3;FLT1;CANT1;WDR19;GRIK3;GAD2;GLT8D2;AFF3;TAF7L;NR5A1;SNTG2;MUC6</t>
+  </si>
+  <si>
+    <t>ALK;CANT1;EXOC7;CRTC1;GPR50;SEMA4F;ZIC4;CDH8;SLC9A3;ZNF507;NF1;BSN;LCT;XYLB</t>
+  </si>
+  <si>
+    <t>TCF7L2;NRAS;BRAF;TP53</t>
+  </si>
+  <si>
+    <t>ALK;NRAS;PIK3CA;BRAF;TP53</t>
+  </si>
+  <si>
+    <t>TCF7L2;INSR;CTCF</t>
+  </si>
+  <si>
+    <t>ALK;DOCK3;FLT1;MME;IRS1;INSR;TIE1;ANK3;GNAI2;NR5A1;AR;NRAS;PIK3CA;FLNC</t>
+  </si>
+  <si>
+    <t>NRAS;PIK3CA;IRS1;INSR;TP53;ADCY6</t>
+  </si>
+  <si>
+    <t>EXOC7;WSCD2;PCDH7;POMT1;OR51E2;GREB1L;AFF3;NR5A1;SLC9A3;SNTG2;CNR2;IL3RA;XYLB;ABCG1</t>
+  </si>
+  <si>
+    <t>NRAS;COL4A2;PIK3CA;GNAS;GNB3;ADCY6;GNAI2</t>
+  </si>
+  <si>
+    <t>NRAS;FLT1;PIK3CA;INSR;GNAS;BRAF;SIPA1L3;ADCY6;GNAI2</t>
+  </si>
+  <si>
+    <t>PIK3CA;IRS1;INSR;KCNJ1</t>
   </si>
   <si>
     <t>NR5A1;KMT2D;TCF7L2;CYP11A1;GNAS;BRAF;AHR;ADCY6;GNAI2</t>
   </si>
   <si>
-    <t>TCF7L2;NRAS;BRAF;TP53</t>
-  </si>
-  <si>
-    <t>TCF7L2;NRAS;PIK3CA;IL1R2;BRAF;TP53</t>
-  </si>
-  <si>
-    <t>GABRQ;GAD2;GNB3;HAP1;ADCY6;GNAI2</t>
-  </si>
-  <si>
-    <t>NRAS;FLT1;PIK3CA;INSR;GNAS;BRAF;SIPA1L3;ADCY6;GNAI2</t>
+    <t>DYNC1H1;GNAS;ADCY6;DYNC1I1</t>
+  </si>
+  <si>
+    <t>TCF7L2;NRAS;PIK3CA;MSH3;BRAF;TP53</t>
+  </si>
+  <si>
+    <t>AR;MAFB;IRS1;CHEK2;NF1;ANK2;PRDM2;BSN;TP53;TOPORS;ADCY6</t>
+  </si>
+  <si>
+    <t>AR;CAND1;SIN3A;DPF2;TP53;MCPH1;RELB</t>
+  </si>
+  <si>
+    <t>DPP10;DYNC1H1;USP9X;INSR;NOTCH4;CAD;ANK3;CYP11A1;UBR5;NF1;GNAS;SOX9;TP53;DYNC1I1</t>
+  </si>
+  <si>
+    <t>NLGN4Y;NFAT5;DOCK3;CANT1;SAMD9;USP9X;GAD2;ZIC4;AFF3;SLC4A4;TAF7L;GRM3;RBM42</t>
+  </si>
+  <si>
+    <t>DYNC1H1;IFT140;WDR19;DYNC1I1</t>
+  </si>
+  <si>
+    <t>ATP4A;GNAS;KCNJ1;ADCY6;GNAI2</t>
+  </si>
+  <si>
+    <t>SMEK1;EXOC7;RANBP17;DOT1L;GPX5;GFRA3;AFF3;MYT1;ADAMTS20;ATP4A;CNR2;SCN9A;MASP2;RAB40AL</t>
+  </si>
+  <si>
+    <t>GABRQ;CDKL5;FRMPD4;WSCD2;MCF2;GAD2;HOXD12;AFF3;CDH9;NR5A1;SLC9A3;XYLB;OR7E24</t>
+  </si>
+  <si>
+    <t>IRS1;ANK2;PRDM2;MYT1;HDAC9;TOPORS;ADCY6;AR;MAFB;CHEK2;NF1;BSN;TP53</t>
+  </si>
+  <si>
+    <t>CYP11A1;INSR;GNAS;ADCY6</t>
+  </si>
+  <si>
+    <t>ALK;DOCK3;EXOC7;GPX5;GPR50;ZIC4;AMOT;NR5A1;MAFB;MASP2;ZNF335;ACSBG2;RAB40AL</t>
+  </si>
+  <si>
+    <t>NR5A1;DYNC1H1;SIN3A;USP9X;CAD;DPF2;CSPG4;TP53;RELB</t>
+  </si>
+  <si>
+    <t>EXOC7;SEMA4F;SUOX;TLE6;SYNE1;TAF7L;SNTG2;RFX7;MSH3;HIVEP3;HAP1;ZNF335;XYLB</t>
+  </si>
+  <si>
+    <t>SNTG2;WSCD2;DOT1L;KIF24;CTCF;HOXD12;ZNF335;XYLB;RAB40AL;CDH8;OR7E24;MCPH1</t>
+  </si>
+  <si>
+    <t>GABRQ;GRM3;SCAF11;CRTC1;POMT1;NF1;PDE4DIP;CEP63;ZNF335;MYBL1;PRRC2A;JAKMIP2</t>
+  </si>
+  <si>
+    <t>ALK;FLT1;MME;PIK3CA;USP9X;IRS1;INSR;CAD;IL3RA</t>
+  </si>
+  <si>
+    <t>KMT2D;COLGALT2;DOT1L;PRDM2;AASS</t>
+  </si>
+  <si>
+    <t>TAF7L;SNTG2;MSH3;WSCD2;PSG7;ZFP64;CDH12;BRAF;PRDM2;ZIC4;ZNF335;OR7E24</t>
+  </si>
+  <si>
+    <t>DYNC1H1;WDR59;USP9X;HEATR1;POMT1;GAD2;HMHA1;ANK3;MKI67;ANKHD1;RFX7;FRG1;GNAS;BSN;MCPH1</t>
+  </si>
+  <si>
+    <t>GABRQ;FLT1;WDR19;GRIK3;GAD2;GLT8D2;AP3B1;NR5A1;SNTG2;ANKFY1;GNB3;ZNF335;RAB40AL</t>
+  </si>
+  <si>
+    <t>GABRQ;GRM3;FANCL;THRAP3;NBEAL2;MASP2;GFRA3;ZNF335;PTPN13;TP53;ADAMTS9;ANKHD1</t>
+  </si>
+  <si>
+    <t>MON2;INSR;RANBP17;CD180;ZIC4;CTCF;HOXD12;AFF3;MYT1;GNAI2;SNTG2;UBR5;ZFP64;ZNF385D</t>
+  </si>
+  <si>
+    <t>CDKL5;WSCD2;DOT1L;OR51E2;ZIC4;HOXD12;PRRC2A;AMOT;SNTG2;CNR2;ZNF507;IL3RA;XYLB;ABCG1</t>
+  </si>
+  <si>
+    <t>TAF7L;NR5A1;CDKL5;PIK3CA;IFT140;DOT1L;CD180;GAD2;GPR50;GFRA3;PRDM10;CDH9</t>
+  </si>
+  <si>
+    <t>NFAT5;PCLO;IRS1;RPS6KA1;DPF2;BSN;TP53</t>
+  </si>
+  <si>
+    <t>KIF4B;SCN9A;RPS6KA1;ANK2;SCN4A;ANK3;SCN3A</t>
+  </si>
+  <si>
+    <t>DENND2D;GRM3;CANT1;FRMPD4;WSCD2;MGA;GRIK3;HEATR2;PDE4DIP;HOXD12;AFF3;MUC3A</t>
+  </si>
+  <si>
+    <t>OSBPL6;SLX4;IRS1;CHEK2;KIF24;MYT1;TP53;TOPORS</t>
+  </si>
+  <si>
+    <t>DENND2D;NR5A1;GABRQ;SLC9A3;FRMPD4;IFT140;GAD2;ZIC4;PTPN13;CDH9;RAB40AL;IGF2R</t>
+  </si>
+  <si>
+    <t>CDKL5;MCF2;SEMA4F;ZNF45;CDH8;AMOT;ADAMTS20;NR5A1;ATP4A;CYP11A1;ANKFY1;MASP2;MUC6</t>
+  </si>
+  <si>
+    <t>ALK;AR;SVIL;DYNC1H1;NFAT5;PIK3CA;SIN3A;MCF2;AHR;TP53</t>
+  </si>
+  <si>
+    <t>GABRQ;GRM3;EPB41L1;ZNF507;CRYBB1;MAP7D1;GAD2;NBEAL2;GFRA3;ZNF335;ADAMTS9;ANKHD1</t>
+  </si>
+  <si>
+    <t>IRS1;ANK2;BRAF;PRDM2;AR;PCLO;EPB41L1;THRAP3;RPS6KA1;RICTOR;SCN4A;BSN;TP53;DYNC1I1</t>
+  </si>
+  <si>
+    <t>CHGA;RAI1;MYO1E;CRTC1;HEATR1;PDE4DIP;HIVEP3;SEMA4F;LARP4B;LCT;MYT1;XYLB</t>
+  </si>
+  <si>
+    <t>GRM3;GNAS;GRIK3;GNB3;ADCY6;GNAI2</t>
+  </si>
+  <si>
+    <t>GABRQ;ITPKC;SLC9A3;ALMS1;GPR50;HAP1;ECE2;ACSBG2;MYT1;MUC3A;RAB40AL;PRRC2A</t>
+  </si>
+  <si>
+    <t>WDR59;MCF2;GPX5;AP3B1;MYT1;MUC3A;PRRC2A;RAI1;CAND1;ALMS1;MASP2;CEP63;OR7E24</t>
+  </si>
+  <si>
+    <t>SNTG2;CDKL5;CRTC1;INSR;MCF2;ZIC4;ZNF335;MYT1;MYO16;BRDT;MCPH1;MUC6</t>
+  </si>
+  <si>
+    <t>PCLO;PIK3CA;BRAF;HYOU1;RICTOR;BSN;KCNJ1</t>
+  </si>
+  <si>
+    <t>IRS1;ANK2;BRAF;PTH2R;PRDM2;AR;PCLO;EPB41L1;THRAP3;RPS6KA1;SCN4A;BSN;TP53;DYNC1I1</t>
+  </si>
+  <si>
+    <t>NR5A1;MTRR;FLT1;FRMPD4;EPB41L1;CRYBB1;DOT1L;SCN9A;GPR50;SCN4A;XYLB;LRP1B</t>
+  </si>
+  <si>
+    <t>DACH1;CRTC1;RPS6KA1;SOX9;PPP2R5C;TP53;ATF6</t>
   </si>
   <si>
     <t>TCF7L2;NRAS;PIK3CA;BRAF;TP53</t>
   </si>
   <si>
-    <t>TCF7L2;PCDHB6;CDH12;PCDHB5;FAT3;CDH9;CDH8;PCDHA7</t>
-  </si>
-  <si>
-    <t>NRAS;PIK3CA;INSR;GNB3</t>
-  </si>
-  <si>
-    <t>TCF7L2;NRAS;PIK3CA;MSH3;BRAF;TP53</t>
-  </si>
-  <si>
-    <t>GABRQ;NFAT5;TFAP2C;DOCK3;FLT1;CANT1;WDR19;GRIK3;GAD2;GLT8D2;TAF7L;NR5A1;SNTG2;MUC6</t>
-  </si>
-  <si>
-    <t>PIK3CA;INSR;GNAS;ADCY6;GNAI2</t>
-  </si>
-  <si>
-    <t>CYP11A1;INSR;GNAS;ADCY6</t>
-  </si>
-  <si>
-    <t>NRAS;WDR59;PIK3CA;INSR;RPS6KA1;BRAF;RICTOR</t>
-  </si>
-  <si>
-    <t>DOCK3;FLT1;IFT140;MCF2;ZIC4;SIPA1L3;CDH9;LRP1B;PSG5;CYP11A1;SCN9A;BSN;RAB40AL</t>
-  </si>
-  <si>
-    <t>NRAS;PIK3CA;BRAF;TP53</t>
-  </si>
-  <si>
-    <t>NRAS;GNAS;BRAF;GNAI2</t>
-  </si>
-  <si>
-    <t>KMT2D;COLGALT2;PRDM2;AASS</t>
-  </si>
-  <si>
-    <t>NRAS;BRAF;TP53</t>
-  </si>
-  <si>
-    <t>TCF7L2;NRAS;PIK3CA;BRAF</t>
-  </si>
-  <si>
-    <t>NRAS;PIK3CA;INSR;TP53;ADCY6</t>
-  </si>
-  <si>
-    <t>PIK3CA;INSR;KCNJ1</t>
-  </si>
-  <si>
-    <t>NRAS;PIK3CA;PPP2R5C;TP53;GNAI2</t>
-  </si>
-  <si>
-    <t>NRAS;PIK3CA;CRTC1;CHEK2;IL1R2;TP53;ADCY6;RELB</t>
-  </si>
-  <si>
-    <t>MAFB;GNAS;BRAF;ADCY6;GNAI2</t>
-  </si>
-  <si>
-    <t>GNAS;KCNJ1;ADCY6;GNAI2</t>
-  </si>
-  <si>
-    <t>NRAS;PIK3CA;GNAS;GNB3;ADCY6;GNAI2</t>
-  </si>
-  <si>
-    <t>GNAS;GRIK3;GNB3;ADCY6;GNAI2</t>
-  </si>
-  <si>
-    <t>NRAS;GNAS;GNB3;BRAF;GNAI2</t>
-  </si>
-  <si>
-    <t>NRAS;PIK3CA;GNB3;ADCY6;GNAI2</t>
-  </si>
-  <si>
-    <t>DYNC1H1;GNAS;ADCY6</t>
-  </si>
-  <si>
-    <t>NR5A1;CYP11A1;GNAS;ADCY6</t>
-  </si>
-  <si>
-    <t>NRAS;PIK3CA;RPS6KA1;BRAF;TP53</t>
-  </si>
-  <si>
-    <t>PIK3CA;RPS6KA1;BRAF;ADCY6;GNAI2</t>
-  </si>
-  <si>
-    <t>NRAS;PIK3CA;ANK2;BRAF;ANK3;FLNC;TP53</t>
-  </si>
-  <si>
-    <t>TCF7L2;NRAS;GNAS;ADCY6;GNAI2</t>
-  </si>
-  <si>
-    <t>GABRQ;GNAS;GNB3;ADCY6;GNAI2</t>
-  </si>
-  <si>
-    <t>SLC9A3;GNAS;SLC4A4;ADCY6</t>
+    <t>DENND2D;NR5A1;GABRQ;SLC9A3;WDR59;CNR2;ZNF507;RANBP17;ZFP64;ZNF335;LCT;SIPA1L3</t>
+  </si>
+  <si>
+    <t>GABRQ;MCF2;KIF24;SEMA4F;HOXD12;ECE2;AFF3;PRDM10;MYT1;TLE6;ADAMTS20;RAI1;XYLB</t>
+  </si>
+  <si>
+    <t>IRS1;RPS6KA1;RICTOR;PPP2R5C;PTPN13;TP53;TOPORS</t>
+  </si>
+  <si>
+    <t>NUP205;FRMPD4;USP9X;MSH3;WSCD2;MCF2;ZFP64;GREB1L;AP3B1;ZNF385D;XYLB;CDH8</t>
+  </si>
+  <si>
+    <t>SVIL;EXOC7;OR51E2;GPR50;SEMA4F;ZIC4;MUC3A;TLE6;TAF7L;PCDHB6;NF1;CDH12;ACSBG2;RAB40AL</t>
+  </si>
+  <si>
+    <t>AP3B1;TDRD7;SEMA4F;PRDM10;MYO16;RELB;ATP4A;ITPKC;SLC9A3;CNR2;EPB41L1;ZNF507;ZFP64;NF1</t>
+  </si>
+  <si>
+    <t>NFAT5;IRS1;MGA;PCDH7;ANK2;MKI67;ADCY6;RELB;NR5A1;AR;PCLO;EPB41L1;SIN3A;THRAP3;CHEK2;RPS6KA1;BSN;ZNF335;TP53;DYNC1I1</t>
+  </si>
+  <si>
+    <t>AR;TCF7L2;NRAS;DACH1;ZMIZ1;USP9X;SIN3A;NOTCH4;NF1;CTCF</t>
+  </si>
+  <si>
+    <t>NLGN4Y;SNTG2;PSG5;WSCD2;PSG7;GPR50;PRDM2;HOXD12;ZNF335;AFF3;XYLB</t>
+  </si>
+  <si>
+    <t>FLT1;EPB41L1;ZNF507;SCN9A;CAD;NF1;GLT8D2;BRAF;GPR50;SCN4A;XYLB;LRP1B</t>
+  </si>
+  <si>
+    <t>NRAS;PIK3CA;IRS1;NF1;BRAF;TP53</t>
+  </si>
+  <si>
+    <t>NR5A1;SNTG2;EXOC7;WSCD2;PCDHB6;GRIK3;AFF3;SIPA1L3;CDH9;OR7E24;ADAMTS20</t>
+  </si>
+  <si>
+    <t>DENND2D;SLC9A3;SNTG2;FRMPD4;WSCD2;GAD2;PRDM2;ZIC4;ZNF385D;ZNF335;CDH9</t>
+  </si>
+  <si>
+    <t>CHIT1;CRTC1;HEATR1;PDE4DIP;HIVEP3;SEMA4F;HOXD12;MYT1;XYLB;BAP1;BRDT</t>
+  </si>
+  <si>
+    <t>TAF7L;SLC9A3;CNR2;WSCD2;ZNF507;PCDH7;IL3RA;OR51E2;GREB1L;MASP2;ZIC4;SUOX</t>
+  </si>
+  <si>
+    <t>MON2;GPR50;PRDM2;ZNF45;NR5A1;ITPKC;RAI1;RFX7;CAMTA1;MASP2;ATF6;RAB40AL;MCPH1</t>
+  </si>
+  <si>
+    <t>EXOC7;WSCD2;SACS;GNAS;ANK2;AP3B1;CEP63;ATF6;GNAI2;NKTR;MCPH1</t>
+  </si>
+  <si>
+    <t>DYNC1H1;EXOC7;IRS1;INSR;ANK2;BRAF;ANK3;SLC4A4;GNAI2;GRM3;CLIP2;VCAN;PCLO;NBEA;PIK3CA;EPB41L1;RPS6KA1;NF1;GNAS;RICTOR;BSN;DYNC1I1</t>
+  </si>
+  <si>
+    <t>AMER1;RNF43;TCF7L2;NUP205;MTRR;MUC16;IRS1;NOTCH4;MTR;PPP2R5C;MUC5B;MUC3A;HDAC9;ADAMTS20;ERLEC1;NRAS;VCAN;PIK3CA;CYP11A1;RICTOR;CSPG4;ADAMTS9;MUC6</t>
+  </si>
+  <si>
+    <t>NR5A1;GABRQ;SLC9A3;SNTG2;EXOC7;PSG7;MCF2;CRYBB1;DOT1L;GPX5;AMOT</t>
+  </si>
+  <si>
+    <t>ATP4A;SNTG2;SMEK1;CRTC1;MSH3;HAAO;TIE1;PRDM2;ECE2;ZNF335;AFF3;SIPA1L3</t>
+  </si>
+  <si>
+    <t>RAI1;WSCD2;ZFP64;KIF24;PDE4DIP;ZNF335;PRDM10;MYT1;MUC3A;TLE6;JAKMIP2</t>
+  </si>
+  <si>
+    <t>CDKL5;IL3RA;KIF24;ANK2;HYOU1;GPR50;CSPG4;PRDM10;SIPA1L3;MYT1;ADAMTS20</t>
+  </si>
+  <si>
+    <t>DENND2D;GRM3;ATP4A;SLC9A3;CANT1;FRMPD4;GRIK3;MICAL2;HOXD12;MUC3A;XYLB</t>
+  </si>
+  <si>
+    <t>NFAT5;SLX4;THRAP3;CHEK2;UBR5;AP3B1;BSN;TP53;MCPH1</t>
+  </si>
+  <si>
+    <t>SNTG2;CAND1;CNR2;CRTC1;IL3RA;OR51E2;MASP2;CTCF;SUOX;ZFHX4;CDH8;ABCG1</t>
+  </si>
+  <si>
+    <t>NR5A1;FRMPD4;WSCD2;GRIK3;GAD2;SCN4A;BSN;CDH9;MUC3A;MYO16;ADAMTS20</t>
+  </si>
+  <si>
+    <t>NRAS;PIK3CA;IRS1;RPS6KA1;BRAF;TP53</t>
+  </si>
+  <si>
+    <t>MYO1E;FLT1;EPB41L1;EXOC7;WSCD2;RANBP17;GNAS;ANK2;BRAF;ATF6;MCPH1</t>
+  </si>
+  <si>
+    <t>NRAS;PIK3CA;IRS1;RPS6KA1;BRAF</t>
+  </si>
+  <si>
+    <t>TAF7L;GABRQ;EXOC7;ZFP64;CTCF;ZNF335;MYT1;MUC3A;XYLB;RAB40AL;OR7E24</t>
+  </si>
+  <si>
+    <t>CDKL5;IFT140;TIE1;GPX5;DYSF;MKI67;ZNF335;PTPN13;PRDM10;MUC3A;RAB40AL;IGF2R</t>
+  </si>
+  <si>
+    <t>FLT1;EXOC7;WSCD2;RANBP17;ZFP64;ANK2;BRAF;CEP63;HOXD12;ATF6;MCPH1</t>
+  </si>
+  <si>
+    <t>CDKL5;EXOC7;GREB1L;GPR50;PRDM2;SEMA4F;PRDM10;CDH8;GRM3;ZNF507;PSG7;ARMC4;MASP2</t>
+  </si>
+  <si>
+    <t>DENND2D;SLC9A3;PSG7;CRYBB1;DOT1L;AHR;ZNF385D;MKI67;AFF3;RAB40AL;MYO16</t>
+  </si>
+  <si>
+    <t>DYNC1H1;SVIL;IRS1;KIF24;ANK2;PRDM2;MKI67;MYT1;ADCY6;GNAI2;NR5A1;AR;PCLO;EPB41L1;CHEK2;NF1;SCN4A;ZNF335;TP53</t>
+  </si>
+  <si>
+    <t>GABRQ;GRM3;DOCK3;FANCL;THRAP3;MAP7D1;BRAF;GFRA3;PTPN13;ADAMTS9;RELB</t>
+  </si>
+  <si>
+    <t>SLC9A3;MIS18BP1;TRPS1;ZFP64;HEATR2;CDH12;CEP170;SCN4A;ECE2;TOPORS;MYO16;MCPH1</t>
+  </si>
+  <si>
+    <t>DHX30;DACH1;CTCF;TP53;ZBTB4;HDAC9;TOPORS;RELB</t>
+  </si>
+  <si>
+    <t>CYP11A1;FANCL;THRAP3;MAP7D1;NBEAL2;MASP2;ZNF335;TP53;ADAMTS9;ANKHD1;PRRC2A</t>
+  </si>
+  <si>
+    <t>DENND2D;SNTG2;AMHR2;IL3RA;CDH12;KIF24;ANK2;HYOU1;PRDM10;MYT1;BRDT</t>
+  </si>
+  <si>
+    <t>TAF7L;DENND2D;GRM3;SLC9A3;MON2;WSCD2;PSG7;AHR;RAB40AL;MYO16;JAKMIP2</t>
+  </si>
+  <si>
+    <t>VCAN;CANT1;MSH3;MCF2;NF1;KIF24;GAD2;MASP2;XYLB;RELB;ADAMTS20;MCPH1</t>
+  </si>
+  <si>
+    <t>TAF7L;GRM3;WSCD2;CRYBB1;GPX5;MASP2;ZNF385D;AFF3;MUC3A;OR7E24;ADAMTS20</t>
+  </si>
+  <si>
+    <t>AR;DHX30;DACH1;CTCF;TP53;ZBTB4;HDAC9;TOPORS;RELB</t>
+  </si>
+  <si>
+    <t>SLC9A3;CANT1;SAMD9;WSCD2;MCF2;MGA;PXDN;SCN9A;MICAL2;HOXD12;ADAMTS20</t>
+  </si>
+  <si>
+    <t>TAF7L;GABRQ;SNTG2;MAFB;EXOC7;WSCD2;ARMC4;PCDHB6;GRIK3;NF1;HMHA1;MASP2</t>
+  </si>
+  <si>
+    <t>GABRQ;RAI1;EXOC7;CRTC1;WSCD2;CRYBB1;GPX5;ZNF335;LCT;AMOT;OR7E24</t>
+  </si>
+  <si>
+    <t>USP9X;IRS1;KRT2;NOTCH4;ANK3;CTCF;AR;DACH1;CYP11A1;SIN3A;NF1;SOX9;TP53</t>
+  </si>
+  <si>
+    <t>MON2;CDKL5;MCF2;DOT1L;GPX5;KIF24;AP3B1;ZIC4;NR5A1;SNTG2;MSH3;GNAS;RAB40AL</t>
+  </si>
+  <si>
+    <t>TAF7L;SETD5;SVIL;RAI1;CANT1;MAP7D1;MASP2;HAP1;ZNF335;XYLB;TLE6</t>
+  </si>
+  <si>
+    <t>CAD;SACS;UBE4B;FLNC;TP53;ZBTB4</t>
+  </si>
+  <si>
+    <t>NR5A1;GABRQ;SNTG2;CDKL5;AMHR2;MCF2;GPX5;GRIK3;ACSBG2;XYLB;CDH8</t>
   </si>
   <si>
     <t>PIK3CA;RPS6KA1;GNAS;BRAF;GNAI2</t>
   </si>
   <si>
-    <t>P2RY12;PIK3CA;GNAS;ADCY6;GNAI2</t>
-  </si>
-  <si>
-    <t>SCN9A;GNB3;SCN3A;ADCY6</t>
-  </si>
-  <si>
-    <t>NRAS;FLT1;INSR;CDH12;CDH9;CDH8;AMOT</t>
-  </si>
-  <si>
-    <t>NRAS;PIK3CA;GNAS;GNB3;TP53;ADCY6;GNAI2</t>
-  </si>
-  <si>
-    <t>EXOC7;KIF24;MTR;CTCF;ECE2;TLE6;SLC9A3;CHEK2;RPS6KA1;ALMS1;GNAS;NKTR;OR7E24</t>
-  </si>
-  <si>
-    <t>GABRQ;GPX5;GRIK3;GAD2;PRDM2;ZIC4;TAF7L;ZNF507;PCBP1;ARMC4;MASP2;ZNF385D;BAP1</t>
-  </si>
-  <si>
-    <t>NRAS;GNAS;ADCY6;GNAI2</t>
-  </si>
-  <si>
-    <t>SNTG2;CAND1;CNR2;CRTC1;IL3RA;OR51E2;MASP2;CTCF;SUOX;ZFHX4;CDH8;ABCG1</t>
+    <t>ATP4A;KDM3B;NBEA;RFX7;NTHL1;EPB41L1;MGA;HEATR2;ASNS;BRAF;ZIC4;ZNF335</t>
+  </si>
+  <si>
+    <t>NR5A1;CDKL5;RFX7;MSH3;CYP11A1;ALMS1;SCN4A;ZIC4;XYLB;MCPH1;MUC6</t>
+  </si>
+  <si>
+    <t>GABRQ;SLC9A3;NUP205;FRMPD4;CYP11A1;WSCD2;DOT1L;GAD2;MASP2;BCAT1;ANKHD1</t>
+  </si>
+  <si>
+    <t>AR;AHR</t>
+  </si>
+  <si>
+    <t>TAF7L;ALK;CANT1;EXOC7;MCF2;GNAS;CDH12;MYT1;KCNJ1;XYLB;OR7E24</t>
+  </si>
+  <si>
+    <t>TAF7L;CNR2;WSCD2;DOT1L;GRIK3;ANKFY1;GAD2;AP3B1;LARP4B;BSN;ZNF335;CDH9</t>
+  </si>
+  <si>
+    <t>CANT1;AMHR2;CRTC1;GRIK3;AP3B1;ECE2;GFRA3;MYT1;MUC3A;SLC9A3;CNR2;PSG7;HAP1;ZNF335</t>
+  </si>
+  <si>
+    <t>NFAT5;WSCD2;GREB1;CD180;GPX5;AP3B1;AFF3;TOPORS;LRP1B;NR5A1;ATP4A;MASP2;NKTR;OR7E24</t>
+  </si>
+  <si>
+    <t>NR5A1;GABRQ;SLC9A3;SNTG2;WSCD2;DOT1L;GAD2;GNB3;MASP2;BCAT1;PRDM10</t>
+  </si>
+  <si>
+    <t>TCF7L2;NRAS;PIK3CA;IRS1;INSR;PPP2R5C;TP53</t>
+  </si>
+  <si>
+    <t>GABRQ;MON2;WDR59;CANT1;ZNF507;CHEK2;HAAO;CRYBB1;RPS6KA1;GNAS;RELB</t>
+  </si>
+  <si>
+    <t>IRS1;RPS6KA1;CAD;RICTOR</t>
+  </si>
+  <si>
+    <t>ITPKC;CDKL5;DOT1L;ZFP64;GPR50;ZIC4;GFRA3;ZNF335;AFF3;PRDM10;RAB40AL</t>
+  </si>
+  <si>
+    <t>DYNC1H1;IRS1;CAD;BRAF;PTPN13;SIPA1L3;HDAC9;ARHGAP21;CAND1;PIK3CA;EPB41L1;PCBP1;CEP170;HIVEP2;TP53</t>
+  </si>
+  <si>
+    <t>ATP4A;MON2;EXOC7;PSG7;MCF2;IL3RA;CAMTA1;UBE4B;ZNF45;ATF6;ADCY6;MUC6</t>
+  </si>
+  <si>
+    <t>TCF7L2;FLT1;USP9X;IRS1;FANCL;AHR;PTPN13;CDH9;CDH8;NR5A1;AR;SALL1;PIK3CA</t>
+  </si>
+  <si>
+    <t>NR5A1;SLC9A3;WDR59;RANBP17;NF1;KIF24;ZIC4;HIVEP2;AFF3;TLE6;SYNE1</t>
+  </si>
+  <si>
+    <t>GABRQ;CDKL5;FRMPD4;CRTC1;MCF2;GPX5;GPR50;SEMA4F;LARP4B;CDH8;TAF7L;NR5A1;XYLB</t>
+  </si>
+  <si>
+    <t>PIK3CA;CHEK2;MGA;MYBL1;TP53</t>
+  </si>
+  <si>
+    <t>DENND2D;SMEK1;WSCD2;HAAO;MCF2;GNB3;PRDM2;UBE4B;ZIC4;ATF6;OR7E24</t>
+  </si>
+  <si>
+    <t>SIN3A;CTCF;TP53;ATF6;BAP1;RELB</t>
+  </si>
+  <si>
+    <t>TAF7L;GRM3;EXOC7;WSCD2;CHEK2;PSG7;HAAO;NBEAL2;HAP1;LCT;ARHGAP25</t>
+  </si>
+  <si>
+    <t>TAF7L;AR;CAND1;SIN3A;AHR;HAP1;TP53</t>
+  </si>
+  <si>
+    <t>NR5A1;GABRQ;ATP4A;NFAT5;TFAP2C;DOCK3;FLT1;WDR19;GAD2;ZNF335;ZFP36L2;MUC6</t>
   </si>
 </sst>
 </file>
@@ -733,31 +1918,31 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>182</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>192</v>
       </c>
       <c r="D2" t="s">
-        <v>118</v>
+        <v>359</v>
       </c>
       <c r="E2" t="n">
-        <v>2.9196831215616526E-5</v>
+        <v>1.1971460782253024E-4</v>
       </c>
       <c r="F2" t="n">
-        <v>0.013780904333771</v>
+        <v>0.013408036076123387</v>
       </c>
       <c r="G2" t="n">
-        <v>6.609931421961496</v>
+        <v>4.301075268817204</v>
       </c>
       <c r="H2" t="n">
-        <v>69.0172709218666</v>
+        <v>38.840429745804144</v>
       </c>
       <c r="I2" t="s">
-        <v>164</v>
+        <v>441</v>
       </c>
       <c r="J2" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="3">
@@ -765,31 +1950,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>183</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>193</v>
       </c>
       <c r="D3" t="s">
-        <v>119</v>
+        <v>360</v>
       </c>
       <c r="E3" t="n">
-        <v>7.131405502944325E-4</v>
+        <v>8.984662180552286E-6</v>
       </c>
       <c r="F3" t="n">
-        <v>0.03993587081648822</v>
+        <v>0.013746533136244998</v>
       </c>
       <c r="G3" t="n">
-        <v>3.203914601112632</v>
+        <v>6.5982404692082115</v>
       </c>
       <c r="H3" t="n">
-        <v>23.215027043698097</v>
+        <v>76.67149906843132</v>
       </c>
       <c r="I3" t="s">
-        <v>165</v>
+        <v>442</v>
       </c>
       <c r="J3" t="n">
-        <v>11.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="4">
@@ -797,31 +1982,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>182</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>194</v>
       </c>
       <c r="D4" t="s">
-        <v>120</v>
+        <v>361</v>
       </c>
       <c r="E4" t="n">
-        <v>1.3577629339665395E-4</v>
+        <v>4.60501673818083E-4</v>
       </c>
       <c r="F4" t="n">
-        <v>0.04181909836616941</v>
+        <v>0.01719206248920843</v>
       </c>
       <c r="G4" t="n">
-        <v>4.701580253362936</v>
+        <v>7.680491551459293</v>
       </c>
       <c r="H4" t="n">
-        <v>41.86523043099555</v>
+        <v>59.01070712358992</v>
       </c>
       <c r="I4" t="s">
-        <v>166</v>
+        <v>443</v>
       </c>
       <c r="J4" t="n">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="5">
@@ -829,31 +2014,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>184</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>195</v>
       </c>
       <c r="D5" t="s">
-        <v>121</v>
+        <v>362</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0010885869590996165</v>
+        <v>4.907416900335189E-6</v>
       </c>
       <c r="F5" t="n">
-        <v>0.047897826200383124</v>
+        <v>0.01788262718482143</v>
       </c>
       <c r="G5" t="n">
-        <v>8.753692964219281</v>
+        <v>3.6559139784946235</v>
       </c>
       <c r="H5" t="n">
-        <v>59.72535105855132</v>
+        <v>44.69268136565949</v>
       </c>
       <c r="I5" t="s">
-        <v>167</v>
+        <v>444</v>
       </c>
       <c r="J5" t="n">
-        <v>4.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="6">
@@ -861,31 +2046,31 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>182</v>
       </c>
       <c r="C6" t="s">
-        <v>70</v>
+        <v>196</v>
       </c>
       <c r="D6" t="s">
-        <v>122</v>
+        <v>363</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0012931031083072255</v>
+        <v>4.255072319245095E-4</v>
       </c>
       <c r="F6" t="n">
-        <v>0.049784469669828184</v>
+        <v>0.02382840498777253</v>
       </c>
       <c r="G6" t="n">
-        <v>5.008556283651238</v>
+        <v>3.0169412856811326</v>
       </c>
       <c r="H6" t="n">
-        <v>33.310457559504286</v>
+        <v>23.418187973862498</v>
       </c>
       <c r="I6" t="s">
-        <v>168</v>
+        <v>445</v>
       </c>
       <c r="J6" t="n">
-        <v>6.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="7">
@@ -893,31 +2078,31 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>182</v>
       </c>
       <c r="C7" t="s">
-        <v>71</v>
+        <v>197</v>
       </c>
       <c r="D7" t="s">
-        <v>123</v>
+        <v>364</v>
       </c>
       <c r="E7" t="n">
-        <v>8.251374198762174E-4</v>
+        <v>9.902270512829798E-4</v>
       </c>
       <c r="F7" t="n">
-        <v>0.050828465064374995</v>
+        <v>0.027726357435923436</v>
       </c>
       <c r="G7" t="n">
-        <v>5.458763590046854</v>
+        <v>8.898776418242491</v>
       </c>
       <c r="H7" t="n">
-        <v>38.7570065011354</v>
+        <v>61.55796481780501</v>
       </c>
       <c r="I7" t="s">
-        <v>169</v>
+        <v>446</v>
       </c>
       <c r="J7" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="8">
@@ -925,31 +2110,31 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>185</v>
       </c>
       <c r="C8" t="s">
-        <v>72</v>
+        <v>198</v>
       </c>
       <c r="D8" t="s">
-        <v>124</v>
+        <v>365</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0010845809356815608</v>
+        <v>1.4304652884026753E-4</v>
       </c>
       <c r="F8" t="n">
-        <v>0.05567515469832012</v>
+        <v>0.033758980806303136</v>
       </c>
       <c r="G8" t="n">
-        <v>3.537596792578908</v>
+        <v>5.266622778143515</v>
       </c>
       <c r="H8" t="n">
-        <v>24.14962242401271</v>
+        <v>46.621938665556044</v>
       </c>
       <c r="I8" t="s">
-        <v>170</v>
+        <v>447</v>
       </c>
       <c r="J8" t="n">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="9">
@@ -957,31 +2142,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>184</v>
       </c>
       <c r="C9" t="s">
-        <v>73</v>
+        <v>199</v>
       </c>
       <c r="D9" t="s">
-        <v>125</v>
+        <v>366</v>
       </c>
       <c r="E9" t="n">
-        <v>7.415970658165241E-4</v>
+        <v>1.9775034374015044E-5</v>
       </c>
       <c r="F9" t="n">
-        <v>0.057102974067872354</v>
+        <v>0.03603011262945541</v>
       </c>
       <c r="G9" t="n">
-        <v>6.980315510261065</v>
+        <v>3.4408602150537635</v>
       </c>
       <c r="H9" t="n">
-        <v>50.30507120116251</v>
+        <v>37.268267719762356</v>
       </c>
       <c r="I9" t="s">
-        <v>171</v>
+        <v>448</v>
       </c>
       <c r="J9" t="n">
-        <v>5.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="10">
@@ -989,31 +2174,31 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>183</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>200</v>
       </c>
       <c r="D10" t="s">
-        <v>126</v>
+        <v>367</v>
       </c>
       <c r="E10" t="n">
-        <v>5.634874022690133E-4</v>
+        <v>4.759828980008291E-5</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0631105890541295</v>
+        <v>0.036412691697063425</v>
       </c>
       <c r="G10" t="n">
-        <v>4.318488529014845</v>
+        <v>7.2840790842872005</v>
       </c>
       <c r="H10" t="n">
-        <v>32.308191442725615</v>
+        <v>72.4963538830325</v>
       </c>
       <c r="I10" t="s">
-        <v>172</v>
+        <v>449</v>
       </c>
       <c r="J10" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="11">
@@ -1021,31 +2206,31 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>183</v>
       </c>
       <c r="C11" t="s">
-        <v>75</v>
+        <v>201</v>
       </c>
       <c r="D11" t="s">
-        <v>127</v>
+        <v>368</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0017580979401286194</v>
+        <v>7.578814207466112E-5</v>
       </c>
       <c r="F11" t="n">
-        <v>0.06563565643146846</v>
+        <v>0.03865195245807717</v>
       </c>
       <c r="G11" t="n">
-        <v>7.711586658955079</v>
+        <v>11.123470522803116</v>
       </c>
       <c r="H11" t="n">
-        <v>48.918625565163126</v>
+        <v>105.53469092951327</v>
       </c>
       <c r="I11" t="s">
-        <v>173</v>
+        <v>450</v>
       </c>
       <c r="J11" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="12">
@@ -1053,31 +2238,31 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
+        <v>186</v>
       </c>
       <c r="C12" t="s">
-        <v>76</v>
+        <v>202</v>
       </c>
       <c r="D12" t="s">
-        <v>128</v>
+        <v>369</v>
       </c>
       <c r="E12" t="n">
-        <v>6.883805399290441E-4</v>
+        <v>3.321420075052994E-4</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0706737354327152</v>
+        <v>0.03935882788937798</v>
       </c>
       <c r="G12" t="n">
-        <v>5.649185575746163</v>
+        <v>11.730205278592376</v>
       </c>
       <c r="H12" t="n">
-        <v>41.13267354812976</v>
+        <v>93.95833368973565</v>
       </c>
       <c r="I12" t="s">
-        <v>174</v>
+        <v>451</v>
       </c>
       <c r="J12" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="13">
@@ -1085,31 +2270,31 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
+        <v>182</v>
       </c>
       <c r="C13" t="s">
-        <v>77</v>
+        <v>203</v>
       </c>
       <c r="D13" t="s">
-        <v>129</v>
+        <v>370</v>
       </c>
       <c r="E13" t="n">
-        <v>2.3483963455512076E-5</v>
+        <v>0.001819528200482701</v>
       </c>
       <c r="F13" t="n">
-        <v>0.085575562831886</v>
+        <v>0.0407574316908125</v>
       </c>
       <c r="G13" t="n">
-        <v>3.7786774628879893</v>
+        <v>7.590132827324478</v>
       </c>
       <c r="H13" t="n">
-        <v>40.27765151490066</v>
+        <v>47.887499370045376</v>
       </c>
       <c r="I13" t="s">
-        <v>175</v>
+        <v>452</v>
       </c>
       <c r="J13" t="n">
-        <v>14.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="14">
@@ -1117,31 +2302,31 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>186</v>
       </c>
       <c r="C14" t="s">
-        <v>78</v>
+        <v>204</v>
       </c>
       <c r="D14" t="s">
-        <v>130</v>
+        <v>371</v>
       </c>
       <c r="E14" t="n">
-        <v>5.801678820941772E-4</v>
+        <v>5.548635227721639E-4</v>
       </c>
       <c r="F14" t="n">
-        <v>0.08934585384250329</v>
+        <v>0.04383421829900095</v>
       </c>
       <c r="G14" t="n">
-        <v>7.36105999263894</v>
+        <v>17.59530791788856</v>
       </c>
       <c r="H14" t="n">
-        <v>54.85604007670528</v>
+        <v>131.9082999303067</v>
       </c>
       <c r="I14" t="s">
-        <v>176</v>
+        <v>453</v>
       </c>
       <c r="J14" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="15">
@@ -1149,28 +2334,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>183</v>
       </c>
       <c r="C15" t="s">
-        <v>79</v>
+        <v>205</v>
       </c>
       <c r="D15" t="s">
-        <v>131</v>
+        <v>372</v>
       </c>
       <c r="E15" t="n">
-        <v>0.003111379528595655</v>
+        <v>1.4590312594336244E-4</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09583048948074618</v>
+        <v>0.044646356538668906</v>
       </c>
       <c r="G15" t="n">
-        <v>6.609931421961496</v>
+        <v>14.336917562724013</v>
       </c>
       <c r="H15" t="n">
-        <v>38.15707889162157</v>
+        <v>126.6317946583405</v>
       </c>
       <c r="I15" t="s">
-        <v>177</v>
+        <v>454</v>
       </c>
       <c r="J15" t="n">
         <v>4.0</v>
@@ -1181,31 +2366,31 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>183</v>
       </c>
       <c r="C16" t="s">
-        <v>80</v>
+        <v>206</v>
       </c>
       <c r="D16" t="s">
-        <v>132</v>
+        <v>372</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00285983343848691</v>
+        <v>1.4590312594336244E-4</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09786985545044093</v>
+        <v>0.055807945673336135</v>
       </c>
       <c r="G16" t="n">
-        <v>3.728958022586831</v>
+        <v>14.336917562724013</v>
       </c>
       <c r="H16" t="n">
-        <v>21.840476911870375</v>
+        <v>126.6317946583405</v>
       </c>
       <c r="I16" t="s">
-        <v>178</v>
+        <v>454</v>
       </c>
       <c r="J16" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="17">
@@ -1213,31 +2398,31 @@
         <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>64</v>
+        <v>183</v>
       </c>
       <c r="C17" t="s">
-        <v>81</v>
+        <v>207</v>
       </c>
       <c r="D17" t="s">
-        <v>133</v>
+        <v>373</v>
       </c>
       <c r="E17" t="n">
-        <v>9.745499988575799E-5</v>
+        <v>2.254316380915369E-4</v>
       </c>
       <c r="F17" t="n">
-        <v>0.11837533986123404</v>
+        <v>0.05748506771334191</v>
       </c>
       <c r="G17" t="n">
-        <v>3.5087719298245617</v>
+        <v>12.903225806451614</v>
       </c>
       <c r="H17" t="n">
-        <v>32.40743798644184</v>
+        <v>108.35475615490233</v>
       </c>
       <c r="I17" t="s">
-        <v>179</v>
+        <v>454</v>
       </c>
       <c r="J17" t="n">
-        <v>13.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="18">
@@ -1245,31 +2430,31 @@
         <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>187</v>
       </c>
       <c r="C18" t="s">
-        <v>82</v>
+        <v>208</v>
       </c>
       <c r="D18" t="s">
-        <v>134</v>
+        <v>374</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00899540006493502</v>
+        <v>2.0224770054164115E-4</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1319325342857136</v>
+        <v>0.05804509005545101</v>
       </c>
       <c r="G18" t="n">
-        <v>4.90737332842596</v>
+        <v>7.038123167155425</v>
       </c>
       <c r="H18" t="n">
-        <v>23.118841546804784</v>
+        <v>59.86639792241528</v>
       </c>
       <c r="I18" t="s">
-        <v>180</v>
+        <v>455</v>
       </c>
       <c r="J18" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="19">
@@ -1277,31 +2462,31 @@
         <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>187</v>
       </c>
       <c r="C19" t="s">
-        <v>83</v>
+        <v>209</v>
       </c>
       <c r="D19" t="s">
-        <v>135</v>
+        <v>375</v>
       </c>
       <c r="E19" t="n">
-        <v>0.006444862398670652</v>
+        <v>8.095148458428752E-4</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1323345079193707</v>
+        <v>0.0580826901892263</v>
       </c>
       <c r="G19" t="n">
-        <v>5.398110661268556</v>
+        <v>2.5806451612903225</v>
       </c>
       <c r="H19" t="n">
-        <v>27.2306180453916</v>
+        <v>18.371807601272202</v>
       </c>
       <c r="I19" t="s">
-        <v>181</v>
+        <v>456</v>
       </c>
       <c r="J19" t="n">
-        <v>4.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="20">
@@ -1309,31 +2494,31 @@
         <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>185</v>
       </c>
       <c r="C20" t="s">
-        <v>84</v>
+        <v>210</v>
       </c>
       <c r="D20" t="s">
-        <v>136</v>
+        <v>376</v>
       </c>
       <c r="E20" t="n">
-        <v>0.006072966268872038</v>
+        <v>1.264776594664995E-4</v>
       </c>
       <c r="F20" t="n">
-        <v>0.13360525791518485</v>
+        <v>0.05969745526818777</v>
       </c>
       <c r="G20" t="n">
-        <v>5.489604062307006</v>
+        <v>4.272591326639607</v>
       </c>
       <c r="H20" t="n">
-        <v>28.018434729210128</v>
+        <v>38.34840790600773</v>
       </c>
       <c r="I20" t="s">
-        <v>182</v>
+        <v>457</v>
       </c>
       <c r="J20" t="n">
-        <v>4.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="21">
@@ -1341,31 +2526,31 @@
         <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>182</v>
       </c>
       <c r="C21" t="s">
-        <v>85</v>
+        <v>211</v>
       </c>
       <c r="D21" t="s">
-        <v>137</v>
+        <v>377</v>
       </c>
       <c r="E21" t="n">
-        <v>0.014043460587404168</v>
+        <v>0.003228777082725751</v>
       </c>
       <c r="F21" t="n">
-        <v>0.13516830815376513</v>
+        <v>0.060270505544214016</v>
       </c>
       <c r="G21" t="n">
-        <v>5.924755603831342</v>
+        <v>3.6420395421436003</v>
       </c>
       <c r="H21" t="n">
-        <v>25.27262820285264</v>
+        <v>20.889470748797727</v>
       </c>
       <c r="I21" t="s">
-        <v>183</v>
+        <v>458</v>
       </c>
       <c r="J21" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="22">
@@ -1373,31 +2558,31 @@
         <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>187</v>
       </c>
       <c r="C22" t="s">
-        <v>86</v>
+        <v>212</v>
       </c>
       <c r="D22" t="s">
-        <v>138</v>
+        <v>378</v>
       </c>
       <c r="E22" t="n">
-        <v>0.014560511096621855</v>
+        <v>6.474521919901535E-4</v>
       </c>
       <c r="F22" t="n">
-        <v>0.13589810356847065</v>
+        <v>0.06193959303372468</v>
       </c>
       <c r="G22" t="n">
-        <v>4.261666311527807</v>
+        <v>3.2405361614376194</v>
       </c>
       <c r="H22" t="n">
-        <v>18.024471059193363</v>
+        <v>23.793525297006383</v>
       </c>
       <c r="I22" t="s">
-        <v>180</v>
+        <v>459</v>
       </c>
       <c r="J22" t="n">
-        <v>4.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="23">
@@ -1405,31 +2590,31 @@
         <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>63</v>
+        <v>188</v>
       </c>
       <c r="C23" t="s">
-        <v>87</v>
+        <v>213</v>
       </c>
       <c r="D23" t="s">
-        <v>139</v>
+        <v>374</v>
       </c>
       <c r="E23" t="n">
-        <v>0.013925691232767606</v>
+        <v>2.0224770054164115E-4</v>
       </c>
       <c r="F23" t="n">
-        <v>0.13835848063523945</v>
+        <v>0.06229229176682548</v>
       </c>
       <c r="G23" t="n">
-        <v>4.318488529014845</v>
+        <v>7.038123167155425</v>
       </c>
       <c r="H23" t="n">
-        <v>18.457305715324118</v>
+        <v>59.86639792241528</v>
       </c>
       <c r="I23" t="s">
-        <v>180</v>
+        <v>460</v>
       </c>
       <c r="J23" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="24">
@@ -1437,31 +2622,31 @@
         <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>63</v>
+        <v>187</v>
       </c>
       <c r="C24" t="s">
-        <v>88</v>
+        <v>214</v>
       </c>
       <c r="D24" t="s">
-        <v>134</v>
+        <v>379</v>
       </c>
       <c r="E24" t="n">
-        <v>0.00899540006493502</v>
+        <v>4.6384965152253504E-4</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1385291609999993</v>
+        <v>0.06656242499348378</v>
       </c>
       <c r="G24" t="n">
-        <v>4.90737332842596</v>
+        <v>1.9550342130987293</v>
       </c>
       <c r="H24" t="n">
-        <v>23.118841546804784</v>
+        <v>15.006745034481257</v>
       </c>
       <c r="I24" t="s">
-        <v>184</v>
+        <v>461</v>
       </c>
       <c r="J24" t="n">
-        <v>4.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="25">
@@ -1469,31 +2654,31 @@
         <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
+        <v>184</v>
       </c>
       <c r="C25" t="s">
-        <v>89</v>
+        <v>215</v>
       </c>
       <c r="D25" t="s">
-        <v>140</v>
+        <v>380</v>
       </c>
       <c r="E25" t="n">
-        <v>0.008709202155436694</v>
+        <v>7.468310378934908E-5</v>
       </c>
       <c r="F25" t="n">
-        <v>0.14118075073023692</v>
+        <v>0.06803630755209701</v>
       </c>
       <c r="G25" t="n">
-        <v>3.9691990156386443</v>
+        <v>3.2258064516129035</v>
       </c>
       <c r="H25" t="n">
-        <v>18.82739975111737</v>
+        <v>30.652440899898973</v>
       </c>
       <c r="I25" t="s">
-        <v>185</v>
+        <v>462</v>
       </c>
       <c r="J25" t="n">
-        <v>5.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="26">
@@ -1501,31 +2686,31 @@
         <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>63</v>
+        <v>184</v>
       </c>
       <c r="C26" t="s">
-        <v>90</v>
+        <v>216</v>
       </c>
       <c r="D26" t="s">
-        <v>141</v>
+        <v>381</v>
       </c>
       <c r="E26" t="n">
-        <v>0.01061125291364509</v>
+        <v>2.634770385336515E-4</v>
       </c>
       <c r="F26" t="n">
-        <v>0.14209851727837772</v>
+        <v>0.06857930917261615</v>
       </c>
       <c r="G26" t="n">
-        <v>6.565269723164461</v>
+        <v>3.010752688172043</v>
       </c>
       <c r="H26" t="n">
-        <v>29.844667329016573</v>
+        <v>24.813251758488942</v>
       </c>
       <c r="I26" t="s">
-        <v>186</v>
+        <v>463</v>
       </c>
       <c r="J26" t="n">
-        <v>3.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="27">
@@ -1533,31 +2718,31 @@
         <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>63</v>
+        <v>189</v>
       </c>
       <c r="C27" t="s">
-        <v>91</v>
+        <v>217</v>
       </c>
       <c r="D27" t="s">
-        <v>142</v>
+        <v>366</v>
       </c>
       <c r="E27" t="n">
-        <v>0.01615745532658444</v>
+        <v>1.9775034374015044E-5</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1421856068739431</v>
+        <v>0.07206022525891081</v>
       </c>
       <c r="G27" t="n">
-        <v>3.4021705848331236</v>
+        <v>3.4408602150537635</v>
       </c>
       <c r="H27" t="n">
-        <v>14.035225072986124</v>
+        <v>37.268267719762356</v>
       </c>
       <c r="I27" t="s">
-        <v>187</v>
+        <v>464</v>
       </c>
       <c r="J27" t="n">
-        <v>5.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="28">
@@ -1565,31 +2750,31 @@
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>63</v>
+        <v>184</v>
       </c>
       <c r="C28" t="s">
-        <v>92</v>
+        <v>218</v>
       </c>
       <c r="D28" t="s">
-        <v>143</v>
+        <v>381</v>
       </c>
       <c r="E28" t="n">
-        <v>0.006003246914937417</v>
+        <v>2.634770385336515E-4</v>
       </c>
       <c r="F28" t="n">
-        <v>0.14223077306159418</v>
+        <v>0.07385464064743277</v>
       </c>
       <c r="G28" t="n">
-        <v>2.9578688554896195</v>
+        <v>3.010752688172043</v>
       </c>
       <c r="H28" t="n">
-        <v>15.1308444453359</v>
+        <v>24.813251758488942</v>
       </c>
       <c r="I28" t="s">
-        <v>188</v>
+        <v>465</v>
       </c>
       <c r="J28" t="n">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="29">
@@ -1597,31 +2782,31 @@
         <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>63</v>
+        <v>186</v>
       </c>
       <c r="C29" t="s">
-        <v>93</v>
+        <v>219</v>
       </c>
       <c r="D29" t="s">
-        <v>144</v>
+        <v>369</v>
       </c>
       <c r="E29" t="n">
-        <v>0.010186938436075843</v>
+        <v>3.321420075052994E-4</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1426171381050618</v>
+        <v>0.07871765577875596</v>
       </c>
       <c r="G29" t="n">
-        <v>3.8194179207088843</v>
+        <v>11.730205278592376</v>
       </c>
       <c r="H29" t="n">
-        <v>17.51832909928064</v>
+        <v>93.95833368973565</v>
       </c>
       <c r="I29" t="s">
-        <v>189</v>
+        <v>466</v>
       </c>
       <c r="J29" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="30">
@@ -1629,31 +2814,31 @@
         <v>37</v>
       </c>
       <c r="B30" t="s">
-        <v>63</v>
+        <v>184</v>
       </c>
       <c r="C30" t="s">
-        <v>94</v>
+        <v>220</v>
       </c>
       <c r="D30" t="s">
-        <v>139</v>
+        <v>381</v>
       </c>
       <c r="E30" t="n">
-        <v>0.013925691232767606</v>
+        <v>2.634770385336515E-4</v>
       </c>
       <c r="F30" t="n">
-        <v>0.14297042998974743</v>
+        <v>0.08000919403471883</v>
       </c>
       <c r="G30" t="n">
-        <v>4.318488529014845</v>
+        <v>3.010752688172043</v>
       </c>
       <c r="H30" t="n">
-        <v>18.457305715324118</v>
+        <v>24.813251758488942</v>
       </c>
       <c r="I30" t="s">
-        <v>190</v>
+        <v>467</v>
       </c>
       <c r="J30" t="n">
-        <v>4.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="31">
@@ -1661,31 +2846,31 @@
         <v>38</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>188</v>
       </c>
       <c r="C31" t="s">
-        <v>95</v>
+        <v>221</v>
       </c>
       <c r="D31" t="s">
-        <v>145</v>
+        <v>382</v>
       </c>
       <c r="E31" t="n">
-        <v>0.005580452219082167</v>
+        <v>7.842670342107091E-4</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1432316069564423</v>
+        <v>0.08051808217896612</v>
       </c>
       <c r="G31" t="n">
-        <v>3.7371535347243854</v>
+        <v>4.655803126039241</v>
       </c>
       <c r="H31" t="n">
-        <v>19.390166788015367</v>
+        <v>33.29253537427439</v>
       </c>
       <c r="I31" t="s">
-        <v>191</v>
+        <v>468</v>
       </c>
       <c r="J31" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="32">
@@ -1693,31 +2878,31 @@
         <v>39</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>188</v>
       </c>
       <c r="C32" t="s">
-        <v>96</v>
+        <v>222</v>
       </c>
       <c r="D32" t="s">
-        <v>146</v>
+        <v>383</v>
       </c>
       <c r="E32" t="n">
-        <v>0.01364040489065067</v>
+        <v>0.002615064162828024</v>
       </c>
       <c r="F32" t="n">
-        <v>0.14487050711449678</v>
+        <v>0.08054397621510315</v>
       </c>
       <c r="G32" t="n">
-        <v>3.551388592939839</v>
+        <v>4.349401957230881</v>
       </c>
       <c r="H32" t="n">
-        <v>15.252215863847168</v>
+        <v>25.86357366572796</v>
       </c>
       <c r="I32" t="s">
-        <v>192</v>
+        <v>469</v>
       </c>
       <c r="J32" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="33">
@@ -1725,31 +2910,31 @@
         <v>40</v>
       </c>
       <c r="B33" t="s">
-        <v>63</v>
+        <v>184</v>
       </c>
       <c r="C33" t="s">
-        <v>97</v>
+        <v>223</v>
       </c>
       <c r="D33" t="s">
-        <v>147</v>
+        <v>381</v>
       </c>
       <c r="E33" t="n">
-        <v>0.013170881423704149</v>
+        <v>2.634770385336515E-4</v>
       </c>
       <c r="F33" t="n">
-        <v>0.14487969566074563</v>
+        <v>0.08728275712878418</v>
       </c>
       <c r="G33" t="n">
-        <v>3.582816810576475</v>
+        <v>3.010752688172043</v>
       </c>
       <c r="H33" t="n">
-        <v>15.512689759727051</v>
+        <v>24.813251758488942</v>
       </c>
       <c r="I33" t="s">
-        <v>193</v>
+        <v>470</v>
       </c>
       <c r="J33" t="n">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="34">
@@ -1757,31 +2942,31 @@
         <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>63</v>
+        <v>188</v>
       </c>
       <c r="C34" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
       <c r="D34" t="s">
-        <v>148</v>
+        <v>384</v>
       </c>
       <c r="E34" t="n">
-        <v>0.012712399149089828</v>
+        <v>0.0026004873692538366</v>
       </c>
       <c r="F34" t="n">
-        <v>0.14501551621924694</v>
+        <v>0.08899445663668686</v>
       </c>
       <c r="G34" t="n">
-        <v>3.6148062463851938</v>
+        <v>3.3955857385398978</v>
       </c>
       <c r="H34" t="n">
-        <v>15.779270715902255</v>
+        <v>20.210717832964985</v>
       </c>
       <c r="I34" t="s">
-        <v>194</v>
+        <v>471</v>
       </c>
       <c r="J34" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="35">
@@ -1789,31 +2974,31 @@
         <v>42</v>
       </c>
       <c r="B35" t="s">
-        <v>63</v>
+        <v>184</v>
       </c>
       <c r="C35" t="s">
-        <v>99</v>
+        <v>225</v>
       </c>
       <c r="D35" t="s">
-        <v>149</v>
+        <v>380</v>
       </c>
       <c r="E35" t="n">
-        <v>0.01698403616708883</v>
+        <v>7.468310378934908E-5</v>
       </c>
       <c r="F35" t="n">
-        <v>0.14530786498509332</v>
+        <v>0.09071507673612934</v>
       </c>
       <c r="G35" t="n">
-        <v>5.520794994479204</v>
+        <v>3.2258064516129035</v>
       </c>
       <c r="H35" t="n">
-        <v>22.49989745180393</v>
+        <v>30.652440899898973</v>
       </c>
       <c r="I35" t="s">
-        <v>195</v>
+        <v>472</v>
       </c>
       <c r="J35" t="n">
-        <v>3.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="36">
@@ -1821,31 +3006,31 @@
         <v>43</v>
       </c>
       <c r="B36" t="s">
-        <v>63</v>
+        <v>184</v>
       </c>
       <c r="C36" t="s">
-        <v>100</v>
+        <v>226</v>
       </c>
       <c r="D36" t="s">
-        <v>150</v>
+        <v>381</v>
       </c>
       <c r="E36" t="n">
-        <v>0.008531155566134891</v>
+        <v>2.634770385336515E-4</v>
       </c>
       <c r="F36" t="n">
-        <v>0.14597755079830815</v>
+        <v>0.0960110328416626</v>
       </c>
       <c r="G36" t="n">
-        <v>4.982871379632513</v>
+        <v>3.010752688172043</v>
       </c>
       <c r="H36" t="n">
-        <v>23.738551010048802</v>
+        <v>24.813251758488942</v>
       </c>
       <c r="I36" t="s">
-        <v>196</v>
+        <v>473</v>
       </c>
       <c r="J36" t="n">
-        <v>4.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="37">
@@ -1853,31 +3038,31 @@
         <v>44</v>
       </c>
       <c r="B37" t="s">
-        <v>63</v>
+        <v>188</v>
       </c>
       <c r="C37" t="s">
-        <v>101</v>
+        <v>227</v>
       </c>
       <c r="D37" t="s">
-        <v>142</v>
+        <v>385</v>
       </c>
       <c r="E37" t="n">
-        <v>0.01615745532658444</v>
+        <v>0.0024986548018348935</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1463675364878826</v>
+        <v>0.0961982098706434</v>
       </c>
       <c r="G37" t="n">
-        <v>3.4021705848331236</v>
+        <v>6.974716652136007</v>
       </c>
       <c r="H37" t="n">
-        <v>14.035225072986124</v>
+        <v>41.792521507868344</v>
       </c>
       <c r="I37" t="s">
-        <v>197</v>
+        <v>474</v>
       </c>
       <c r="J37" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="38">
@@ -1885,28 +3070,28 @@
         <v>45</v>
       </c>
       <c r="B38" t="s">
-        <v>63</v>
+        <v>188</v>
       </c>
       <c r="C38" t="s">
-        <v>102</v>
+        <v>228</v>
       </c>
       <c r="D38" t="s">
-        <v>151</v>
+        <v>386</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0077032932925427235</v>
+        <v>0.003577717282395619</v>
       </c>
       <c r="F38" t="n">
-        <v>0.14828839588144743</v>
+        <v>0.10017608390707733</v>
       </c>
       <c r="G38" t="n">
-        <v>4.0894777736883</v>
+        <v>4.887585532746823</v>
       </c>
       <c r="H38" t="n">
-        <v>19.899837816341513</v>
+        <v>27.53191746118345</v>
       </c>
       <c r="I38" t="s">
-        <v>198</v>
+        <v>475</v>
       </c>
       <c r="J38" t="n">
         <v>5.0</v>
@@ -1917,31 +3102,31 @@
         <v>46</v>
       </c>
       <c r="B39" t="s">
-        <v>63</v>
+        <v>187</v>
       </c>
       <c r="C39" t="s">
-        <v>103</v>
+        <v>229</v>
       </c>
       <c r="D39" t="s">
-        <v>152</v>
+        <v>387</v>
       </c>
       <c r="E39" t="n">
-        <v>0.01212777818337814</v>
+        <v>0.002134398339567271</v>
       </c>
       <c r="F39" t="n">
-        <v>0.14941422721921868</v>
+        <v>0.10209538724263446</v>
       </c>
       <c r="G39" t="n">
-        <v>4.49842555105713</v>
+        <v>11.385199240986719</v>
       </c>
       <c r="H39" t="n">
-        <v>19.848208456493428</v>
+        <v>70.01408516336409</v>
       </c>
       <c r="I39" t="s">
-        <v>180</v>
+        <v>476</v>
       </c>
       <c r="J39" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="40">
@@ -1949,31 +3134,31 @@
         <v>47</v>
       </c>
       <c r="B40" t="s">
-        <v>63</v>
+        <v>190</v>
       </c>
       <c r="C40" t="s">
-        <v>104</v>
+        <v>230</v>
       </c>
       <c r="D40" t="s">
-        <v>153</v>
+        <v>388</v>
       </c>
       <c r="E40" t="n">
-        <v>0.012650125946577516</v>
+        <v>2.725481570181085E-4</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1498553381363798</v>
+        <v>0.10493104045197177</v>
       </c>
       <c r="G40" t="n">
-        <v>2.819908554394022</v>
+        <v>3.0007501875468865</v>
       </c>
       <c r="H40" t="n">
-        <v>12.323248838096518</v>
+        <v>24.62924302017228</v>
       </c>
       <c r="I40" t="s">
-        <v>199</v>
+        <v>477</v>
       </c>
       <c r="J40" t="n">
-        <v>7.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="41">
@@ -1981,31 +3166,31 @@
         <v>48</v>
       </c>
       <c r="B41" t="s">
-        <v>63</v>
+        <v>188</v>
       </c>
       <c r="C41" t="s">
-        <v>105</v>
+        <v>231</v>
       </c>
       <c r="D41" t="s">
-        <v>154</v>
+        <v>389</v>
       </c>
       <c r="E41" t="n">
-        <v>0.008364363230184963</v>
+        <v>0.005130415840321621</v>
       </c>
       <c r="F41" t="n">
-        <v>0.15154258087629224</v>
+        <v>0.10534453858793727</v>
       </c>
       <c r="G41" t="n">
-        <v>4.008498015793482</v>
+        <v>3.795066413662239</v>
       </c>
       <c r="H41" t="n">
-        <v>19.1757528783054</v>
+        <v>20.00974786562861</v>
       </c>
       <c r="I41" t="s">
-        <v>200</v>
+        <v>478</v>
       </c>
       <c r="J41" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="42">
@@ -2013,31 +3198,31 @@
         <v>49</v>
       </c>
       <c r="B42" t="s">
-        <v>63</v>
+        <v>184</v>
       </c>
       <c r="C42" t="s">
-        <v>106</v>
+        <v>232</v>
       </c>
       <c r="D42" t="s">
-        <v>155</v>
+        <v>381</v>
       </c>
       <c r="E42" t="n">
-        <v>0.005420758347522983</v>
+        <v>2.634770385336515E-4</v>
       </c>
       <c r="F42" t="n">
-        <v>0.15178123373064353</v>
+        <v>0.10667892537962512</v>
       </c>
       <c r="G42" t="n">
-        <v>4.448992303243315</v>
+        <v>3.010752688172043</v>
       </c>
       <c r="H42" t="n">
-        <v>23.212704350228364</v>
+        <v>24.813251758488942</v>
       </c>
       <c r="I42" t="s">
-        <v>201</v>
+        <v>479</v>
       </c>
       <c r="J42" t="n">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="43">
@@ -2045,31 +3230,31 @@
         <v>50</v>
       </c>
       <c r="B43" t="s">
-        <v>63</v>
+        <v>188</v>
       </c>
       <c r="C43" t="s">
-        <v>107</v>
+        <v>233</v>
       </c>
       <c r="D43" t="s">
-        <v>152</v>
+        <v>390</v>
       </c>
       <c r="E43" t="n">
-        <v>0.01212777818337814</v>
+        <v>0.004190580513005063</v>
       </c>
       <c r="F43" t="n">
-        <v>0.15563982002001944</v>
+        <v>0.10755823316712997</v>
       </c>
       <c r="G43" t="n">
-        <v>4.49842555105713</v>
+        <v>3.4739454094292808</v>
       </c>
       <c r="H43" t="n">
-        <v>19.848208456493428</v>
+        <v>19.019559330877463</v>
       </c>
       <c r="I43" t="s">
-        <v>202</v>
+        <v>480</v>
       </c>
       <c r="J43" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="44">
@@ -2077,31 +3262,31 @@
         <v>51</v>
       </c>
       <c r="B44" t="s">
-        <v>61</v>
+        <v>188</v>
       </c>
       <c r="C44" t="s">
-        <v>108</v>
+        <v>234</v>
       </c>
       <c r="D44" t="s">
-        <v>156</v>
+        <v>391</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0013353843690709505</v>
+        <v>0.00497787783096505</v>
       </c>
       <c r="F44" t="n">
-        <v>0.15757535555037216</v>
+        <v>0.1095133122812311</v>
       </c>
       <c r="G44" t="n">
-        <v>6.13421666053245</v>
+        <v>2.8186658315064204</v>
       </c>
       <c r="H44" t="n">
-        <v>40.59953448449862</v>
+        <v>14.946684796166254</v>
       </c>
       <c r="I44" t="s">
-        <v>203</v>
+        <v>481</v>
       </c>
       <c r="J44" t="n">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="45">
@@ -2109,31 +3294,31 @@
         <v>52</v>
       </c>
       <c r="B45" t="s">
-        <v>63</v>
+        <v>188</v>
       </c>
       <c r="C45" t="s">
-        <v>109</v>
+        <v>235</v>
       </c>
       <c r="D45" t="s">
-        <v>157</v>
+        <v>385</v>
       </c>
       <c r="E45" t="n">
-        <v>0.01896636157030235</v>
+        <v>0.0024986548018348935</v>
       </c>
       <c r="F45" t="n">
-        <v>0.15788214496359795</v>
+        <v>0.10994081128073531</v>
       </c>
       <c r="G45" t="n">
-        <v>3.264986287057594</v>
+        <v>6.974716652136007</v>
       </c>
       <c r="H45" t="n">
-        <v>12.94595896751876</v>
+        <v>41.792521507868344</v>
       </c>
       <c r="I45" t="s">
-        <v>204</v>
+        <v>482</v>
       </c>
       <c r="J45" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="46">
@@ -2141,31 +3326,31 @@
         <v>53</v>
       </c>
       <c r="B46" t="s">
-        <v>63</v>
+        <v>188</v>
       </c>
       <c r="C46" t="s">
-        <v>110</v>
+        <v>236</v>
       </c>
       <c r="D46" t="s">
-        <v>158</v>
+        <v>392</v>
       </c>
       <c r="E46" t="n">
-        <v>0.019517216713739783</v>
+        <v>7.163693948433501E-4</v>
       </c>
       <c r="F46" t="n">
-        <v>0.15819217757452245</v>
+        <v>0.11032088680587591</v>
       </c>
       <c r="G46" t="n">
-        <v>3.902248670796547</v>
+        <v>3.746097814776275</v>
       </c>
       <c r="H46" t="n">
-        <v>15.361039147553301</v>
+        <v>27.12667283459108</v>
       </c>
       <c r="I46" t="s">
-        <v>205</v>
+        <v>483</v>
       </c>
       <c r="J46" t="n">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="47">
@@ -2173,31 +3358,31 @@
         <v>54</v>
       </c>
       <c r="B47" t="s">
-        <v>61</v>
+        <v>188</v>
       </c>
       <c r="C47" t="s">
-        <v>111</v>
+        <v>237</v>
       </c>
       <c r="D47" t="s">
-        <v>159</v>
+        <v>393</v>
       </c>
       <c r="E47" t="n">
-        <v>0.001082178990348988</v>
+        <v>0.00471892593564092</v>
       </c>
       <c r="F47" t="n">
-        <v>0.17026282781490742</v>
+        <v>0.11180224524441565</v>
       </c>
       <c r="G47" t="n">
-        <v>6.4263222157959</v>
+        <v>5.865102639296188</v>
       </c>
       <c r="H47" t="n">
-        <v>43.883932181594744</v>
+        <v>31.41451062338856</v>
       </c>
       <c r="I47" t="s">
-        <v>171</v>
+        <v>484</v>
       </c>
       <c r="J47" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="48">
@@ -2205,31 +3390,31 @@
         <v>55</v>
       </c>
       <c r="B48" t="s">
-        <v>61</v>
+        <v>188</v>
       </c>
       <c r="C48" t="s">
-        <v>112</v>
+        <v>238</v>
       </c>
       <c r="D48" t="s">
-        <v>160</v>
+        <v>394</v>
       </c>
       <c r="E48" t="n">
-        <v>7.329962512552538E-4</v>
+        <v>0.002198833413658605</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1729871152962399</v>
+        <v>0.1128734485678084</v>
       </c>
       <c r="G48" t="n">
-        <v>4.723346828609986</v>
+        <v>4.50112528132033</v>
       </c>
       <c r="H48" t="n">
-        <v>34.09486490713906</v>
+        <v>27.546113994498246</v>
       </c>
       <c r="I48" t="s">
-        <v>206</v>
+        <v>485</v>
       </c>
       <c r="J48" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="49">
@@ -2237,31 +3422,31 @@
         <v>56</v>
       </c>
       <c r="B49" t="s">
-        <v>63</v>
+        <v>191</v>
       </c>
       <c r="C49" t="s">
-        <v>113</v>
+        <v>239</v>
       </c>
       <c r="D49" t="s">
-        <v>161</v>
+        <v>395</v>
       </c>
       <c r="E49" t="n">
-        <v>0.022060962635658498</v>
+        <v>8.089734806117003E-4</v>
       </c>
       <c r="F49" t="n">
-        <v>0.17422503825084149</v>
+        <v>0.11541354990060258</v>
       </c>
       <c r="G49" t="n">
-        <v>2.5191183085919926</v>
+        <v>3.154121863799283</v>
       </c>
       <c r="H49" t="n">
-        <v>9.607780261869863</v>
+        <v>22.4565415457725</v>
       </c>
       <c r="I49" t="s">
-        <v>207</v>
+        <v>486</v>
       </c>
       <c r="J49" t="n">
-        <v>7.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="50">
@@ -2269,31 +3454,31 @@
         <v>57</v>
       </c>
       <c r="B50" t="s">
-        <v>65</v>
+        <v>187</v>
       </c>
       <c r="C50" t="s">
-        <v>114</v>
+        <v>240</v>
       </c>
       <c r="D50" t="s">
-        <v>133</v>
+        <v>396</v>
       </c>
       <c r="E50" t="n">
-        <v>9.745499988575799E-5</v>
+        <v>0.002010880399492468</v>
       </c>
       <c r="F50" t="n">
-        <v>0.17756300979185105</v>
+        <v>0.11542453493086766</v>
       </c>
       <c r="G50" t="n">
-        <v>3.5087719298245617</v>
+        <v>3.961516694963214</v>
       </c>
       <c r="H50" t="n">
-        <v>32.40743798644184</v>
+        <v>24.59778070276263</v>
       </c>
       <c r="I50" t="s">
-        <v>208</v>
+        <v>487</v>
       </c>
       <c r="J50" t="n">
-        <v>13.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="51">
@@ -2301,31 +3486,31 @@
         <v>58</v>
       </c>
       <c r="B51" t="s">
-        <v>64</v>
+        <v>187</v>
       </c>
       <c r="C51" t="s">
-        <v>115</v>
+        <v>241</v>
       </c>
       <c r="D51" t="s">
-        <v>133</v>
+        <v>397</v>
       </c>
       <c r="E51" t="n">
-        <v>9.745499988575799E-5</v>
+        <v>0.002818394483499629</v>
       </c>
       <c r="F51" t="n">
-        <v>0.17756300979185105</v>
+        <v>0.11555417382348478</v>
       </c>
       <c r="G51" t="n">
-        <v>3.5087719298245617</v>
+        <v>2.352150537634409</v>
       </c>
       <c r="H51" t="n">
-        <v>32.40743798644184</v>
+        <v>13.81085860812786</v>
       </c>
       <c r="I51" t="s">
-        <v>209</v>
+        <v>488</v>
       </c>
       <c r="J51" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="52">
@@ -2333,31 +3518,31 @@
         <v>59</v>
       </c>
       <c r="B52" t="s">
-        <v>63</v>
+        <v>184</v>
       </c>
       <c r="C52" t="s">
-        <v>116</v>
+        <v>242</v>
       </c>
       <c r="D52" t="s">
-        <v>162</v>
+        <v>398</v>
       </c>
       <c r="E52" t="n">
-        <v>0.023624260367186997</v>
+        <v>8.651670912897704E-4</v>
       </c>
       <c r="F52" t="n">
-        <v>0.18190680482733987</v>
+        <v>0.11676551409851567</v>
       </c>
       <c r="G52" t="n">
-        <v>3.68052999631947</v>
+        <v>2.795698924731183</v>
       </c>
       <c r="H52" t="n">
-        <v>13.785355588153948</v>
+        <v>19.716912410184587</v>
       </c>
       <c r="I52" t="s">
-        <v>210</v>
+        <v>489</v>
       </c>
       <c r="J52" t="n">
-        <v>4.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="53">
@@ -2365,30 +3550,3902 @@
         <v>60</v>
       </c>
       <c r="B53" t="s">
+        <v>185</v>
+      </c>
+      <c r="C53" t="s">
+        <v>243</v>
+      </c>
+      <c r="D53" t="s">
+        <v>399</v>
+      </c>
+      <c r="E53" t="n">
+        <v>7.497286817426045E-4</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.11795731259416976</v>
+      </c>
+      <c r="G53" t="n">
+        <v>9.557945041816009</v>
+      </c>
+      <c r="H53" t="n">
+        <v>68.77705304239463</v>
+      </c>
+      <c r="I53" t="s">
+        <v>490</v>
+      </c>
+      <c r="J53" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>61</v>
+      </c>
+      <c r="B54" t="s">
+        <v>188</v>
+      </c>
+      <c r="C54" t="s">
+        <v>244</v>
+      </c>
+      <c r="D54" t="s">
+        <v>400</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.006174714933292669</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.11886326246588388</v>
+      </c>
+      <c r="G54" t="n">
+        <v>4.301075268817204</v>
+      </c>
+      <c r="H54" t="n">
+        <v>21.880828224441622</v>
+      </c>
+      <c r="I54" t="s">
+        <v>491</v>
+      </c>
+      <c r="J54" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>62</v>
+      </c>
+      <c r="B55" t="s">
+        <v>184</v>
+      </c>
+      <c r="C55" t="s">
+        <v>245</v>
+      </c>
+      <c r="D55" t="s">
+        <v>381</v>
+      </c>
+      <c r="E55" t="n">
+        <v>2.634770385336515E-4</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.12001379105207825</v>
+      </c>
+      <c r="G55" t="n">
+        <v>3.010752688172043</v>
+      </c>
+      <c r="H55" t="n">
+        <v>24.813251758488942</v>
+      </c>
+      <c r="I55" t="s">
+        <v>492</v>
+      </c>
+      <c r="J55" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>63</v>
+      </c>
+      <c r="B56" t="s">
+        <v>184</v>
+      </c>
+      <c r="C56" t="s">
+        <v>246</v>
+      </c>
+      <c r="D56" t="s">
+        <v>398</v>
+      </c>
+      <c r="E56" t="n">
+        <v>8.651670912897704E-4</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.12125649540999704</v>
+      </c>
+      <c r="G56" t="n">
+        <v>2.795698924731183</v>
+      </c>
+      <c r="H56" t="n">
+        <v>19.716912410184587</v>
+      </c>
+      <c r="I56" t="s">
+        <v>493</v>
+      </c>
+      <c r="J56" t="n">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
         <v>64</v>
       </c>
-      <c r="C53" t="s">
+      <c r="B57" t="s">
+        <v>190</v>
+      </c>
+      <c r="C57" t="s">
+        <v>239</v>
+      </c>
+      <c r="D57" t="s">
+        <v>401</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.003531794173117365</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.12361279605910779</v>
+      </c>
+      <c r="G57" t="n">
+        <v>2.3826979472140764</v>
+      </c>
+      <c r="H57" t="n">
+        <v>13.452591742423746</v>
+      </c>
+      <c r="I57" t="s">
+        <v>494</v>
+      </c>
+      <c r="J57" t="n">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>65</v>
+      </c>
+      <c r="B58" t="s">
+        <v>188</v>
+      </c>
+      <c r="C58" t="s">
+        <v>247</v>
+      </c>
+      <c r="D58" t="s">
+        <v>402</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.006934356452307768</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.12563422278298778</v>
+      </c>
+      <c r="G58" t="n">
+        <v>5.266622778143515</v>
+      </c>
+      <c r="H58" t="n">
+        <v>26.181788158488242</v>
+      </c>
+      <c r="I58" t="s">
+        <v>495</v>
+      </c>
+      <c r="J58" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>66</v>
+      </c>
+      <c r="B59" t="s">
+        <v>184</v>
+      </c>
+      <c r="C59" t="s">
+        <v>248</v>
+      </c>
+      <c r="D59" t="s">
+        <v>398</v>
+      </c>
+      <c r="E59" t="n">
+        <v>8.651670912897704E-4</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.12610675522639692</v>
+      </c>
+      <c r="G59" t="n">
+        <v>2.795698924731183</v>
+      </c>
+      <c r="H59" t="n">
+        <v>19.716912410184587</v>
+      </c>
+      <c r="I59" t="s">
+        <v>496</v>
+      </c>
+      <c r="J59" t="n">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>67</v>
+      </c>
+      <c r="B60" t="s">
+        <v>190</v>
+      </c>
+      <c r="C60" t="s">
+        <v>249</v>
+      </c>
+      <c r="D60" t="s">
+        <v>403</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.0023632514465379267</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.12997882955958598</v>
+      </c>
+      <c r="G60" t="n">
+        <v>3.1556802244039273</v>
+      </c>
+      <c r="H60" t="n">
+        <v>19.0846605501609</v>
+      </c>
+      <c r="I60" t="s">
+        <v>497</v>
+      </c>
+      <c r="J60" t="n">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>68</v>
+      </c>
+      <c r="B61" t="s">
+        <v>184</v>
+      </c>
+      <c r="C61" t="s">
+        <v>250</v>
+      </c>
+      <c r="D61" t="s">
+        <v>398</v>
+      </c>
+      <c r="E61" t="n">
+        <v>8.651670912897704E-4</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.13136120336083013</v>
+      </c>
+      <c r="G61" t="n">
+        <v>2.795698924731183</v>
+      </c>
+      <c r="H61" t="n">
+        <v>19.716912410184587</v>
+      </c>
+      <c r="I61" t="s">
+        <v>498</v>
+      </c>
+      <c r="J61" t="n">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>69</v>
+      </c>
+      <c r="B62" t="s">
+        <v>184</v>
+      </c>
+      <c r="C62" t="s">
+        <v>251</v>
+      </c>
+      <c r="D62" t="s">
+        <v>404</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.0026335625316073782</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.13146166938599022</v>
+      </c>
+      <c r="G62" t="n">
+        <v>2.5806451612903225</v>
+      </c>
+      <c r="H62" t="n">
+        <v>15.32752974102075</v>
+      </c>
+      <c r="I62" t="s">
+        <v>499</v>
+      </c>
+      <c r="J62" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>70</v>
+      </c>
+      <c r="B63" t="s">
+        <v>184</v>
+      </c>
+      <c r="C63" t="s">
+        <v>252</v>
+      </c>
+      <c r="D63" t="s">
+        <v>404</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.0026335625316073782</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.13328752590524007</v>
+      </c>
+      <c r="G63" t="n">
+        <v>2.5806451612903225</v>
+      </c>
+      <c r="H63" t="n">
+        <v>15.32752974102075</v>
+      </c>
+      <c r="I63" t="s">
+        <v>500</v>
+      </c>
+      <c r="J63" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>71</v>
+      </c>
+      <c r="B64" t="s">
+        <v>190</v>
+      </c>
+      <c r="C64" t="s">
+        <v>253</v>
+      </c>
+      <c r="D64" t="s">
+        <v>405</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.0034810748888251712</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.13402138321976909</v>
+      </c>
+      <c r="G64" t="n">
+        <v>2.977667493796526</v>
+      </c>
+      <c r="H64" t="n">
+        <v>16.854831236096185</v>
+      </c>
+      <c r="I64" t="s">
+        <v>501</v>
+      </c>
+      <c r="J64" t="n">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>72</v>
+      </c>
+      <c r="B65" t="s">
+        <v>188</v>
+      </c>
+      <c r="C65" t="s">
+        <v>254</v>
+      </c>
+      <c r="D65" t="s">
+        <v>406</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.002187965185975889</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.13477865545611475</v>
+      </c>
+      <c r="G65" t="n">
+        <v>5.467468562055768</v>
+      </c>
+      <c r="H65" t="n">
+        <v>33.48706017438251</v>
+      </c>
+      <c r="I65" t="s">
+        <v>502</v>
+      </c>
+      <c r="J65" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>73</v>
+      </c>
+      <c r="B66" t="s">
+        <v>184</v>
+      </c>
+      <c r="C66" t="s">
+        <v>255</v>
+      </c>
+      <c r="D66" t="s">
+        <v>404</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.0026335625316073782</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.13516481500249697</v>
+      </c>
+      <c r="G66" t="n">
+        <v>2.5806451612903225</v>
+      </c>
+      <c r="H66" t="n">
+        <v>15.32752974102075</v>
+      </c>
+      <c r="I66" t="s">
+        <v>503</v>
+      </c>
+      <c r="J66" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>74</v>
+      </c>
+      <c r="B67" t="s">
+        <v>189</v>
+      </c>
+      <c r="C67" t="s">
+        <v>256</v>
+      </c>
+      <c r="D67" t="s">
+        <v>380</v>
+      </c>
+      <c r="E67" t="n">
+        <v>7.468310378934908E-5</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.13607261510419402</v>
+      </c>
+      <c r="G67" t="n">
+        <v>3.2258064516129035</v>
+      </c>
+      <c r="H67" t="n">
+        <v>30.652440899898973</v>
+      </c>
+      <c r="I67" t="s">
+        <v>504</v>
+      </c>
+      <c r="J67" t="n">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>75</v>
+      </c>
+      <c r="B68" t="s">
+        <v>184</v>
+      </c>
+      <c r="C68" t="s">
+        <v>257</v>
+      </c>
+      <c r="D68" t="s">
+        <v>398</v>
+      </c>
+      <c r="E68" t="n">
+        <v>8.651670912897704E-4</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.1370725600286923</v>
+      </c>
+      <c r="G68" t="n">
+        <v>2.795698924731183</v>
+      </c>
+      <c r="H68" t="n">
+        <v>19.716912410184587</v>
+      </c>
+      <c r="I68" t="s">
+        <v>505</v>
+      </c>
+      <c r="J68" t="n">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>76</v>
+      </c>
+      <c r="B69" t="s">
+        <v>184</v>
+      </c>
+      <c r="C69" t="s">
+        <v>258</v>
+      </c>
+      <c r="D69" t="s">
+        <v>404</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.0026335625316073782</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.13709574093110408</v>
+      </c>
+      <c r="G69" t="n">
+        <v>2.5806451612903225</v>
+      </c>
+      <c r="H69" t="n">
+        <v>15.32752974102075</v>
+      </c>
+      <c r="I69" t="s">
+        <v>506</v>
+      </c>
+      <c r="J69" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>77</v>
+      </c>
+      <c r="B70" t="s">
+        <v>189</v>
+      </c>
+      <c r="C70" t="s">
+        <v>259</v>
+      </c>
+      <c r="D70" t="s">
+        <v>381</v>
+      </c>
+      <c r="E70" t="n">
+        <v>2.634770385336515E-4</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.1371586183452323</v>
+      </c>
+      <c r="G70" t="n">
+        <v>3.010752688172043</v>
+      </c>
+      <c r="H70" t="n">
+        <v>24.813251758488942</v>
+      </c>
+      <c r="I70" t="s">
+        <v>507</v>
+      </c>
+      <c r="J70" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>78</v>
+      </c>
+      <c r="B71" t="s">
+        <v>184</v>
+      </c>
+      <c r="C71" t="s">
+        <v>260</v>
+      </c>
+      <c r="D71" t="s">
+        <v>381</v>
+      </c>
+      <c r="E71" t="n">
+        <v>2.634770385336515E-4</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.1371586183452323</v>
+      </c>
+      <c r="G71" t="n">
+        <v>3.010752688172043</v>
+      </c>
+      <c r="H71" t="n">
+        <v>24.813251758488942</v>
+      </c>
+      <c r="I71" t="s">
+        <v>508</v>
+      </c>
+      <c r="J71" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>79</v>
+      </c>
+      <c r="B72" t="s">
+        <v>184</v>
+      </c>
+      <c r="C72" t="s">
+        <v>261</v>
+      </c>
+      <c r="D72" t="s">
+        <v>404</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.0026335625316073782</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.13908263572720703</v>
+      </c>
+      <c r="G72" t="n">
+        <v>2.5806451612903225</v>
+      </c>
+      <c r="H72" t="n">
+        <v>15.32752974102075</v>
+      </c>
+      <c r="I72" t="s">
+        <v>509</v>
+      </c>
+      <c r="J72" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>80</v>
+      </c>
+      <c r="B73" t="s">
+        <v>191</v>
+      </c>
+      <c r="C73" t="s">
+        <v>262</v>
+      </c>
+      <c r="D73" t="s">
+        <v>407</v>
+      </c>
+      <c r="E73" t="n">
+        <v>3.280037967965689E-4</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.14038562502893148</v>
+      </c>
+      <c r="G73" t="n">
+        <v>5.376344086021505</v>
+      </c>
+      <c r="H73" t="n">
+        <v>43.131641795956085</v>
+      </c>
+      <c r="I73" t="s">
+        <v>510</v>
+      </c>
+      <c r="J73" t="n">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>81</v>
+      </c>
+      <c r="B74" t="s">
+        <v>183</v>
+      </c>
+      <c r="C74" t="s">
+        <v>263</v>
+      </c>
+      <c r="D74" t="s">
+        <v>408</v>
+      </c>
+      <c r="E74" t="n">
+        <v>7.372778676120656E-4</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.14100439218080754</v>
+      </c>
+      <c r="G74" t="n">
+        <v>4.704301075268818</v>
+      </c>
+      <c r="H74" t="n">
+        <v>33.929986546398496</v>
+      </c>
+      <c r="I74" t="s">
+        <v>511</v>
+      </c>
+      <c r="J74" t="n">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>82</v>
+      </c>
+      <c r="B75" t="s">
+        <v>184</v>
+      </c>
+      <c r="C75" t="s">
+        <v>264</v>
+      </c>
+      <c r="D75" t="s">
+        <v>404</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.0026335625316073782</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.14112796860554833</v>
+      </c>
+      <c r="G75" t="n">
+        <v>2.5806451612903225</v>
+      </c>
+      <c r="H75" t="n">
+        <v>15.32752974102075</v>
+      </c>
+      <c r="I75" t="s">
+        <v>512</v>
+      </c>
+      <c r="J75" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>83</v>
+      </c>
+      <c r="B76" t="s">
+        <v>183</v>
+      </c>
+      <c r="C76" t="s">
+        <v>265</v>
+      </c>
+      <c r="D76" t="s">
+        <v>409</v>
+      </c>
+      <c r="E76" t="n">
+        <v>6.464862946111971E-4</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.14130343296501882</v>
+      </c>
+      <c r="G76" t="n">
+        <v>9.925558312655088</v>
+      </c>
+      <c r="H76" t="n">
+        <v>72.8928889264619</v>
+      </c>
+      <c r="I76" t="s">
+        <v>454</v>
+      </c>
+      <c r="J76" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>84</v>
+      </c>
+      <c r="B77" t="s">
+        <v>190</v>
+      </c>
+      <c r="C77" t="s">
+        <v>266</v>
+      </c>
+      <c r="D77" t="s">
+        <v>410</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.004445644392540724</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.14263109092734824</v>
+      </c>
+      <c r="G77" t="n">
+        <v>3.109211037699184</v>
+      </c>
+      <c r="H77" t="n">
+        <v>16.838959814451755</v>
+      </c>
+      <c r="I77" t="s">
+        <v>513</v>
+      </c>
+      <c r="J77" t="n">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>85</v>
+      </c>
+      <c r="B78" t="s">
+        <v>184</v>
+      </c>
+      <c r="C78" t="s">
+        <v>267</v>
+      </c>
+      <c r="D78" t="s">
+        <v>404</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.0026335625316073782</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.1432343561966759</v>
+      </c>
+      <c r="G78" t="n">
+        <v>2.5806451612903225</v>
+      </c>
+      <c r="H78" t="n">
+        <v>15.32752974102075</v>
+      </c>
+      <c r="I78" t="s">
+        <v>514</v>
+      </c>
+      <c r="J78" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>86</v>
+      </c>
+      <c r="B79" t="s">
+        <v>184</v>
+      </c>
+      <c r="C79" t="s">
+        <v>268</v>
+      </c>
+      <c r="D79" t="s">
+        <v>398</v>
+      </c>
+      <c r="E79" t="n">
+        <v>8.651670912897704E-4</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.14330313093908742</v>
+      </c>
+      <c r="G79" t="n">
+        <v>2.795698924731183</v>
+      </c>
+      <c r="H79" t="n">
+        <v>19.716912410184587</v>
+      </c>
+      <c r="I79" t="s">
+        <v>515</v>
+      </c>
+      <c r="J79" t="n">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>87</v>
+      </c>
+      <c r="B80" t="s">
+        <v>190</v>
+      </c>
+      <c r="C80" t="s">
+        <v>269</v>
+      </c>
+      <c r="D80" t="s">
+        <v>411</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.0033561753060875068</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.1435697214270767</v>
+      </c>
+      <c r="G80" t="n">
+        <v>2.79290601871247</v>
+      </c>
+      <c r="H80" t="n">
+        <v>15.911055034559995</v>
+      </c>
+      <c r="I80" t="s">
+        <v>516</v>
+      </c>
+      <c r="J80" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>88</v>
+      </c>
+      <c r="B81" t="s">
+        <v>184</v>
+      </c>
+      <c r="C81" t="s">
+        <v>270</v>
+      </c>
+      <c r="D81" t="s">
+        <v>404</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.0026335625316073782</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.14540457371480736</v>
+      </c>
+      <c r="G81" t="n">
+        <v>2.5806451612903225</v>
+      </c>
+      <c r="H81" t="n">
+        <v>15.32752974102075</v>
+      </c>
+      <c r="I81" t="s">
+        <v>517</v>
+      </c>
+      <c r="J81" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>89</v>
+      </c>
+      <c r="B82" t="s">
+        <v>190</v>
+      </c>
+      <c r="C82" t="s">
+        <v>271</v>
+      </c>
+      <c r="D82" t="s">
+        <v>412</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.0022742462423782257</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.14593080055260282</v>
+      </c>
+      <c r="G82" t="n">
+        <v>2.4086021505376345</v>
+      </c>
+      <c r="H82" t="n">
+        <v>14.659009453615589</v>
+      </c>
+      <c r="I82" t="s">
+        <v>518</v>
+      </c>
+      <c r="J82" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>90</v>
+      </c>
+      <c r="B83" t="s">
+        <v>184</v>
+      </c>
+      <c r="C83" t="s">
+        <v>272</v>
+      </c>
+      <c r="D83" t="s">
+        <v>404</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.0026335625316073782</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.14764156715657362</v>
+      </c>
+      <c r="G83" t="n">
+        <v>2.5806451612903225</v>
+      </c>
+      <c r="H83" t="n">
+        <v>15.32752974102075</v>
+      </c>
+      <c r="I83" t="s">
+        <v>519</v>
+      </c>
+      <c r="J83" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>91</v>
+      </c>
+      <c r="B84" t="s">
+        <v>188</v>
+      </c>
+      <c r="C84" t="s">
+        <v>273</v>
+      </c>
+      <c r="D84" t="s">
+        <v>413</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.008719117814416644</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.14919379371335145</v>
+      </c>
+      <c r="G84" t="n">
+        <v>3.3955857385398978</v>
+      </c>
+      <c r="H84" t="n">
+        <v>16.10267305348241</v>
+      </c>
+      <c r="I84" t="s">
+        <v>520</v>
+      </c>
+      <c r="J84" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>92</v>
+      </c>
+      <c r="B85" t="s">
+        <v>184</v>
+      </c>
+      <c r="C85" t="s">
+        <v>274</v>
+      </c>
+      <c r="D85" t="s">
+        <v>404</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.0026335625316073782</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.1499484666433951</v>
+      </c>
+      <c r="G85" t="n">
+        <v>2.5806451612903225</v>
+      </c>
+      <c r="H85" t="n">
+        <v>15.32752974102075</v>
+      </c>
+      <c r="I85" t="s">
+        <v>521</v>
+      </c>
+      <c r="J85" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>93</v>
+      </c>
+      <c r="B86" t="s">
+        <v>184</v>
+      </c>
+      <c r="C86" t="s">
+        <v>275</v>
+      </c>
+      <c r="D86" t="s">
+        <v>398</v>
+      </c>
+      <c r="E86" t="n">
+        <v>8.651670912897704E-4</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.15012708955523443</v>
+      </c>
+      <c r="G86" t="n">
+        <v>2.795698924731183</v>
+      </c>
+      <c r="H86" t="n">
+        <v>19.716912410184587</v>
+      </c>
+      <c r="I86" t="s">
+        <v>522</v>
+      </c>
+      <c r="J86" t="n">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>94</v>
+      </c>
+      <c r="B87" t="s">
+        <v>184</v>
+      </c>
+      <c r="C87" t="s">
+        <v>276</v>
+      </c>
+      <c r="D87" t="s">
+        <v>404</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.0026335625316073782</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.15232860103456008</v>
+      </c>
+      <c r="G87" t="n">
+        <v>2.5806451612903225</v>
+      </c>
+      <c r="H87" t="n">
+        <v>15.32752974102075</v>
+      </c>
+      <c r="I87" t="s">
+        <v>523</v>
+      </c>
+      <c r="J87" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>95</v>
+      </c>
+      <c r="B88" t="s">
+        <v>190</v>
+      </c>
+      <c r="C88" t="s">
+        <v>277</v>
+      </c>
+      <c r="D88" t="s">
+        <v>414</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.00514585419816401</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.15239645125331877</v>
+      </c>
+      <c r="G88" t="n">
+        <v>3.345280764635603</v>
+      </c>
+      <c r="H88" t="n">
+        <v>17.628170747892156</v>
+      </c>
+      <c r="I88" t="s">
+        <v>524</v>
+      </c>
+      <c r="J88" t="n">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>96</v>
+      </c>
+      <c r="B89" t="s">
+        <v>191</v>
+      </c>
+      <c r="C89" t="s">
+        <v>271</v>
+      </c>
+      <c r="D89" t="s">
+        <v>415</v>
+      </c>
+      <c r="E89" t="n">
+        <v>7.223415104462965E-4</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.15458108323550745</v>
+      </c>
+      <c r="G89" t="n">
+        <v>2.7205596579867857</v>
+      </c>
+      <c r="H89" t="n">
+        <v>19.67784208053519</v>
+      </c>
+      <c r="I89" t="s">
+        <v>525</v>
+      </c>
+      <c r="J89" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>97</v>
+      </c>
+      <c r="B90" t="s">
+        <v>184</v>
+      </c>
+      <c r="C90" t="s">
+        <v>278</v>
+      </c>
+      <c r="D90" t="s">
+        <v>404</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.0026335625316073782</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.15478551395447235</v>
+      </c>
+      <c r="G90" t="n">
+        <v>2.5806451612903225</v>
+      </c>
+      <c r="H90" t="n">
+        <v>15.32752974102075</v>
+      </c>
+      <c r="I90" t="s">
+        <v>526</v>
+      </c>
+      <c r="J90" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>98</v>
+      </c>
+      <c r="B91" t="s">
+        <v>190</v>
+      </c>
+      <c r="C91" t="s">
+        <v>241</v>
+      </c>
+      <c r="D91" t="s">
+        <v>416</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.002011587824599347</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.15489226249414972</v>
+      </c>
+      <c r="G91" t="n">
+        <v>2.4411508282476024</v>
+      </c>
+      <c r="H91" t="n">
+        <v>15.15669270931487</v>
+      </c>
+      <c r="I91" t="s">
+        <v>488</v>
+      </c>
+      <c r="J91" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>99</v>
+      </c>
+      <c r="B92" t="s">
+        <v>190</v>
+      </c>
+      <c r="C92" t="s">
+        <v>279</v>
+      </c>
+      <c r="D92" t="s">
+        <v>377</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.003228777082725751</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.15538489710617678</v>
+      </c>
+      <c r="G92" t="n">
+        <v>3.6420395421436003</v>
+      </c>
+      <c r="H92" t="n">
+        <v>20.889470748797727</v>
+      </c>
+      <c r="I92" t="s">
+        <v>527</v>
+      </c>
+      <c r="J92" t="n">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>100</v>
+      </c>
+      <c r="B93" t="s">
+        <v>188</v>
+      </c>
+      <c r="C93" t="s">
+        <v>280</v>
+      </c>
+      <c r="D93" t="s">
+        <v>417</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.002027838469227736</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.15614356213053568</v>
+      </c>
+      <c r="G93" t="n">
+        <v>5.561735261401558</v>
+      </c>
+      <c r="H93" t="n">
+        <v>34.4871237302983</v>
+      </c>
+      <c r="I93" t="s">
+        <v>528</v>
+      </c>
+      <c r="J93" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>101</v>
+      </c>
+      <c r="B94" t="s">
+        <v>184</v>
+      </c>
+      <c r="C94" t="s">
+        <v>281</v>
+      </c>
+      <c r="D94" t="s">
+        <v>404</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.0026335625316073782</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.15732298139634895</v>
+      </c>
+      <c r="G94" t="n">
+        <v>2.5806451612903225</v>
+      </c>
+      <c r="H94" t="n">
+        <v>15.32752974102075</v>
+      </c>
+      <c r="I94" t="s">
+        <v>529</v>
+      </c>
+      <c r="J94" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>102</v>
+      </c>
+      <c r="B95" t="s">
+        <v>184</v>
+      </c>
+      <c r="C95" t="s">
+        <v>282</v>
+      </c>
+      <c r="D95" t="s">
+        <v>398</v>
+      </c>
+      <c r="E95" t="n">
+        <v>8.651670912897704E-4</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.15763344403299615</v>
+      </c>
+      <c r="G95" t="n">
+        <v>2.795698924731183</v>
+      </c>
+      <c r="H95" t="n">
+        <v>19.716912410184587</v>
+      </c>
+      <c r="I95" t="s">
+        <v>530</v>
+      </c>
+      <c r="J95" t="n">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>103</v>
+      </c>
+      <c r="B96" t="s">
+        <v>190</v>
+      </c>
+      <c r="C96" t="s">
+        <v>283</v>
+      </c>
+      <c r="D96" t="s">
+        <v>418</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.005792517521780172</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.15929423184895472</v>
+      </c>
+      <c r="G96" t="n">
+        <v>3.272557269752221</v>
+      </c>
+      <c r="H96" t="n">
+        <v>16.85755864295443</v>
+      </c>
+      <c r="I96" t="s">
+        <v>531</v>
+      </c>
+      <c r="J96" t="n">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>104</v>
+      </c>
+      <c r="B97" t="s">
+        <v>184</v>
+      </c>
+      <c r="C97" t="s">
+        <v>284</v>
+      </c>
+      <c r="D97" t="s">
+        <v>404</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.0026335625316073782</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.1599450310862881</v>
+      </c>
+      <c r="G97" t="n">
+        <v>2.5806451612903225</v>
+      </c>
+      <c r="H97" t="n">
+        <v>15.32752974102075</v>
+      </c>
+      <c r="I97" t="s">
+        <v>532</v>
+      </c>
+      <c r="J97" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>105</v>
+      </c>
+      <c r="B98" t="s">
+        <v>189</v>
+      </c>
+      <c r="C98" t="s">
+        <v>285</v>
+      </c>
+      <c r="D98" t="s">
+        <v>381</v>
+      </c>
+      <c r="E98" t="n">
+        <v>2.634770385336515E-4</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.16001838806943766</v>
+      </c>
+      <c r="G98" t="n">
+        <v>3.010752688172043</v>
+      </c>
+      <c r="H98" t="n">
+        <v>24.813251758488942</v>
+      </c>
+      <c r="I98" t="s">
+        <v>533</v>
+      </c>
+      <c r="J98" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>106</v>
+      </c>
+      <c r="B99" t="s">
+        <v>184</v>
+      </c>
+      <c r="C99" t="s">
+        <v>286</v>
+      </c>
+      <c r="D99" t="s">
+        <v>381</v>
+      </c>
+      <c r="E99" t="n">
+        <v>2.634770385336515E-4</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.16001838806943766</v>
+      </c>
+      <c r="G99" t="n">
+        <v>3.010752688172043</v>
+      </c>
+      <c r="H99" t="n">
+        <v>24.813251758488942</v>
+      </c>
+      <c r="I99" t="s">
+        <v>534</v>
+      </c>
+      <c r="J99" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>107</v>
+      </c>
+      <c r="B100" t="s">
+        <v>190</v>
+      </c>
+      <c r="C100" t="s">
+        <v>287</v>
+      </c>
+      <c r="D100" t="s">
+        <v>419</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.006237483187695505</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.16009540181751797</v>
+      </c>
+      <c r="G100" t="n">
+        <v>1.853911753800519</v>
+      </c>
+      <c r="H100" t="n">
+        <v>9.412640921890194</v>
+      </c>
+      <c r="I100" t="s">
+        <v>535</v>
+      </c>
+      <c r="J100" t="n">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>108</v>
+      </c>
+      <c r="B101" t="s">
+        <v>187</v>
+      </c>
+      <c r="C101" t="s">
+        <v>288</v>
+      </c>
+      <c r="D101" t="s">
+        <v>420</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.0050676548429127825</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.1616018822128854</v>
+      </c>
+      <c r="G101" t="n">
+        <v>2.6333113890717574</v>
+      </c>
+      <c r="H101" t="n">
+        <v>13.916727120551439</v>
+      </c>
+      <c r="I101" t="s">
+        <v>536</v>
+      </c>
+      <c r="J101" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>109</v>
+      </c>
+      <c r="B102" t="s">
+        <v>184</v>
+      </c>
+      <c r="C102" t="s">
+        <v>289</v>
+      </c>
+      <c r="D102" t="s">
+        <v>421</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.007398316714074964</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.16240642232583838</v>
+      </c>
+      <c r="G102" t="n">
+        <v>2.3655913978494625</v>
+      </c>
+      <c r="H102" t="n">
+        <v>11.606780759764032</v>
+      </c>
+      <c r="I102" t="s">
+        <v>537</v>
+      </c>
+      <c r="J102" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>110</v>
+      </c>
+      <c r="B103" t="s">
+        <v>184</v>
+      </c>
+      <c r="C103" t="s">
+        <v>290</v>
+      </c>
+      <c r="D103" t="s">
+        <v>404</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.0026335625316073782</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.16265596381656416</v>
+      </c>
+      <c r="G103" t="n">
+        <v>2.5806451612903225</v>
+      </c>
+      <c r="H103" t="n">
+        <v>15.32752974102075</v>
+      </c>
+      <c r="I103" t="s">
+        <v>538</v>
+      </c>
+      <c r="J103" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>111</v>
+      </c>
+      <c r="B104" t="s">
+        <v>185</v>
+      </c>
+      <c r="C104" t="s">
+        <v>291</v>
+      </c>
+      <c r="D104" t="s">
+        <v>422</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.001724024856426788</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.1627479464466888</v>
+      </c>
+      <c r="G104" t="n">
+        <v>4.720692368214005</v>
+      </c>
+      <c r="H104" t="n">
+        <v>30.038207815721186</v>
+      </c>
+      <c r="I104" t="s">
+        <v>539</v>
+      </c>
+      <c r="J104" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>112</v>
+      </c>
+      <c r="B105" t="s">
+        <v>184</v>
+      </c>
+      <c r="C105" t="s">
+        <v>292</v>
+      </c>
+      <c r="D105" t="s">
+        <v>421</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.007398316714074964</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.1633907036732677</v>
+      </c>
+      <c r="G105" t="n">
+        <v>2.3655913978494625</v>
+      </c>
+      <c r="H105" t="n">
+        <v>11.606780759764032</v>
+      </c>
+      <c r="I105" t="s">
+        <v>540</v>
+      </c>
+      <c r="J105" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>113</v>
+      </c>
+      <c r="B106" t="s">
+        <v>184</v>
+      </c>
+      <c r="C106" t="s">
+        <v>293</v>
+      </c>
+      <c r="D106" t="s">
+        <v>421</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.007398316714074964</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.16438698845176322</v>
+      </c>
+      <c r="G106" t="n">
+        <v>2.3655913978494625</v>
+      </c>
+      <c r="H106" t="n">
+        <v>11.606780759764032</v>
+      </c>
+      <c r="I106" t="s">
+        <v>541</v>
+      </c>
+      <c r="J106" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>114</v>
+      </c>
+      <c r="B107" t="s">
+        <v>184</v>
+      </c>
+      <c r="C107" t="s">
+        <v>294</v>
+      </c>
+      <c r="D107" t="s">
+        <v>421</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.007398316714074964</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.16539549758336913</v>
+      </c>
+      <c r="G107" t="n">
+        <v>2.3655913978494625</v>
+      </c>
+      <c r="H107" t="n">
+        <v>11.606780759764032</v>
+      </c>
+      <c r="I107" t="s">
+        <v>542</v>
+      </c>
+      <c r="J107" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>115</v>
+      </c>
+      <c r="B108" t="s">
+        <v>184</v>
+      </c>
+      <c r="C108" t="s">
+        <v>295</v>
+      </c>
+      <c r="D108" t="s">
+        <v>404</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.0026335625316073782</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.16546037698581528</v>
+      </c>
+      <c r="G108" t="n">
+        <v>2.5806451612903225</v>
+      </c>
+      <c r="H108" t="n">
+        <v>15.32752974102075</v>
+      </c>
+      <c r="I108" t="s">
+        <v>543</v>
+      </c>
+      <c r="J108" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>116</v>
+      </c>
+      <c r="B109" t="s">
+        <v>184</v>
+      </c>
+      <c r="C109" t="s">
+        <v>296</v>
+      </c>
+      <c r="D109" t="s">
+        <v>398</v>
+      </c>
+      <c r="E109" t="n">
+        <v>8.651670912897704E-4</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.16592994108736436</v>
+      </c>
+      <c r="G109" t="n">
+        <v>2.795698924731183</v>
+      </c>
+      <c r="H109" t="n">
+        <v>19.716912410184587</v>
+      </c>
+      <c r="I109" t="s">
+        <v>544</v>
+      </c>
+      <c r="J109" t="n">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
         <v>117</v>
       </c>
-      <c r="D53" t="s">
+      <c r="B110" t="s">
+        <v>184</v>
+      </c>
+      <c r="C110" t="s">
+        <v>297</v>
+      </c>
+      <c r="D110" t="s">
+        <v>421</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.007398316714074964</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.1664164574449949</v>
+      </c>
+      <c r="G110" t="n">
+        <v>2.3655913978494625</v>
+      </c>
+      <c r="H110" t="n">
+        <v>11.606780759764032</v>
+      </c>
+      <c r="I110" t="s">
+        <v>545</v>
+      </c>
+      <c r="J110" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>118</v>
+      </c>
+      <c r="B111" t="s">
+        <v>190</v>
+      </c>
+      <c r="C111" t="s">
+        <v>298</v>
+      </c>
+      <c r="D111" t="s">
+        <v>423</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.008217923795408075</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.16652108743326888</v>
+      </c>
+      <c r="G111" t="n">
+        <v>1.7479739392976323</v>
+      </c>
+      <c r="H111" t="n">
+        <v>8.392787938339238</v>
+      </c>
+      <c r="I111" t="s">
+        <v>546</v>
+      </c>
+      <c r="J111" t="n">
+        <v>22.0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>119</v>
+      </c>
+      <c r="B112" t="s">
+        <v>183</v>
+      </c>
+      <c r="C112" t="s">
+        <v>299</v>
+      </c>
+      <c r="D112" t="s">
+        <v>424</v>
+      </c>
+      <c r="E112" t="n">
+        <v>9.848089626392717E-4</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.16741752364867618</v>
+      </c>
+      <c r="G112" t="n">
+        <v>2.046718576195773</v>
+      </c>
+      <c r="H112" t="n">
+        <v>14.169561405091116</v>
+      </c>
+      <c r="I112" t="s">
+        <v>547</v>
+      </c>
+      <c r="J112" t="n">
+        <v>23.0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>120</v>
+      </c>
+      <c r="B113" t="s">
+        <v>184</v>
+      </c>
+      <c r="C113" t="s">
+        <v>300</v>
+      </c>
+      <c r="D113" t="s">
+        <v>421</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.007398316714074964</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.16745010003782093</v>
+      </c>
+      <c r="G113" t="n">
+        <v>2.3655913978494625</v>
+      </c>
+      <c r="H113" t="n">
+        <v>11.606780759764032</v>
+      </c>
+      <c r="I113" t="s">
+        <v>548</v>
+      </c>
+      <c r="J113" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>121</v>
+      </c>
+      <c r="B114" t="s">
+        <v>184</v>
+      </c>
+      <c r="C114" t="s">
+        <v>301</v>
+      </c>
+      <c r="D114" t="s">
+        <v>404</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.0026335625316073782</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.16836319061714536</v>
+      </c>
+      <c r="G114" t="n">
+        <v>2.5806451612903225</v>
+      </c>
+      <c r="H114" t="n">
+        <v>15.32752974102075</v>
+      </c>
+      <c r="I114" t="s">
+        <v>549</v>
+      </c>
+      <c r="J114" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>122</v>
+      </c>
+      <c r="B115" t="s">
+        <v>184</v>
+      </c>
+      <c r="C115" t="s">
+        <v>302</v>
+      </c>
+      <c r="D115" t="s">
+        <v>421</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.007398316714074964</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.1684966631630573</v>
+      </c>
+      <c r="G115" t="n">
+        <v>2.3655913978494625</v>
+      </c>
+      <c r="H115" t="n">
+        <v>11.606780759764032</v>
+      </c>
+      <c r="I115" t="s">
+        <v>550</v>
+      </c>
+      <c r="J115" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>123</v>
+      </c>
+      <c r="B116" t="s">
+        <v>185</v>
+      </c>
+      <c r="C116" t="s">
+        <v>303</v>
+      </c>
+      <c r="D116" t="s">
+        <v>386</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.003577717282395619</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.1688682557290732</v>
+      </c>
+      <c r="G116" t="n">
+        <v>4.887585532746823</v>
+      </c>
+      <c r="H116" t="n">
+        <v>27.53191746118345</v>
+      </c>
+      <c r="I116" t="s">
+        <v>475</v>
+      </c>
+      <c r="J116" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>124</v>
+      </c>
+      <c r="B117" t="s">
+        <v>184</v>
+      </c>
+      <c r="C117" t="s">
+        <v>304</v>
+      </c>
+      <c r="D117" t="s">
+        <v>421</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.007398316714074964</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.16955639060433442</v>
+      </c>
+      <c r="G117" t="n">
+        <v>2.3655913978494625</v>
+      </c>
+      <c r="H117" t="n">
+        <v>11.606780759764032</v>
+      </c>
+      <c r="I117" t="s">
+        <v>551</v>
+      </c>
+      <c r="J117" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>125</v>
+      </c>
+      <c r="B118" t="s">
+        <v>184</v>
+      </c>
+      <c r="C118" t="s">
+        <v>305</v>
+      </c>
+      <c r="D118" t="s">
+        <v>421</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.007398316714074964</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.17062953231702008</v>
+      </c>
+      <c r="G118" t="n">
+        <v>2.3655913978494625</v>
+      </c>
+      <c r="H118" t="n">
+        <v>11.606780759764032</v>
+      </c>
+      <c r="I118" t="s">
+        <v>552</v>
+      </c>
+      <c r="J118" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>126</v>
+      </c>
+      <c r="B119" t="s">
+        <v>190</v>
+      </c>
+      <c r="C119" t="s">
+        <v>306</v>
+      </c>
+      <c r="D119" t="s">
+        <v>425</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.007994558823676298</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.1709947303952986</v>
+      </c>
+      <c r="G119" t="n">
+        <v>2.615518744551003</v>
+      </c>
+      <c r="H119" t="n">
+        <v>12.63032462706459</v>
+      </c>
+      <c r="I119" t="s">
+        <v>553</v>
+      </c>
+      <c r="J119" t="n">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>127</v>
+      </c>
+      <c r="B120" t="s">
+        <v>184</v>
+      </c>
+      <c r="C120" t="s">
+        <v>307</v>
+      </c>
+      <c r="D120" t="s">
+        <v>404</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.0026335625316073782</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.1713696761638801</v>
+      </c>
+      <c r="G120" t="n">
+        <v>2.5806451612903225</v>
+      </c>
+      <c r="H120" t="n">
+        <v>15.32752974102075</v>
+      </c>
+      <c r="I120" t="s">
+        <v>554</v>
+      </c>
+      <c r="J120" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>128</v>
+      </c>
+      <c r="B121" t="s">
+        <v>184</v>
+      </c>
+      <c r="C121" t="s">
+        <v>308</v>
+      </c>
+      <c r="D121" t="s">
+        <v>421</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.007398316714074964</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.17171634462477178</v>
+      </c>
+      <c r="G121" t="n">
+        <v>2.3655913978494625</v>
+      </c>
+      <c r="H121" t="n">
+        <v>11.606780759764032</v>
+      </c>
+      <c r="I121" t="s">
+        <v>555</v>
+      </c>
+      <c r="J121" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>129</v>
+      </c>
+      <c r="B122" t="s">
+        <v>188</v>
+      </c>
+      <c r="C122" t="s">
+        <v>309</v>
+      </c>
+      <c r="D122" t="s">
+        <v>426</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.010646005618294686</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0.1725773542334086</v>
+      </c>
+      <c r="G122" t="n">
+        <v>3.252914068853348</v>
+      </c>
+      <c r="H122" t="n">
+        <v>14.776591541862052</v>
+      </c>
+      <c r="I122" t="s">
+        <v>556</v>
+      </c>
+      <c r="J122" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>130</v>
+      </c>
+      <c r="B123" t="s">
+        <v>184</v>
+      </c>
+      <c r="C123" t="s">
+        <v>310</v>
+      </c>
+      <c r="D123" t="s">
+        <v>421</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.007398316714074964</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0.17281709042364854</v>
+      </c>
+      <c r="G123" t="n">
+        <v>2.3655913978494625</v>
+      </c>
+      <c r="H123" t="n">
+        <v>11.606780759764032</v>
+      </c>
+      <c r="I123" t="s">
+        <v>557</v>
+      </c>
+      <c r="J123" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>131</v>
+      </c>
+      <c r="B124" t="s">
+        <v>182</v>
+      </c>
+      <c r="C124" t="s">
+        <v>311</v>
+      </c>
+      <c r="D124" t="s">
+        <v>427</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.010865986035447348</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.17385577656715756</v>
+      </c>
+      <c r="G124" t="n">
+        <v>3.7509377344336086</v>
+      </c>
+      <c r="H124" t="n">
+        <v>16.962182730735215</v>
+      </c>
+      <c r="I124" t="s">
+        <v>558</v>
+      </c>
+      <c r="J124" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>132</v>
+      </c>
+      <c r="B125" t="s">
+        <v>184</v>
+      </c>
+      <c r="C125" t="s">
+        <v>312</v>
+      </c>
+      <c r="D125" t="s">
+        <v>421</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.007398316714074964</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.1739320393941237</v>
+      </c>
+      <c r="G125" t="n">
+        <v>2.3655913978494625</v>
+      </c>
+      <c r="H125" t="n">
+        <v>11.606780759764032</v>
+      </c>
+      <c r="I125" t="s">
+        <v>559</v>
+      </c>
+      <c r="J125" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>133</v>
+      </c>
+      <c r="B126" t="s">
+        <v>184</v>
+      </c>
+      <c r="C126" t="s">
+        <v>313</v>
+      </c>
+      <c r="D126" t="s">
+        <v>404</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.0026335625316073782</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0.17448548845776884</v>
+      </c>
+      <c r="G126" t="n">
+        <v>2.5806451612903225</v>
+      </c>
+      <c r="H126" t="n">
+        <v>15.32752974102075</v>
+      </c>
+      <c r="I126" t="s">
+        <v>560</v>
+      </c>
+      <c r="J126" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>134</v>
+      </c>
+      <c r="B127" t="s">
+        <v>184</v>
+      </c>
+      <c r="C127" t="s">
+        <v>314</v>
+      </c>
+      <c r="D127" t="s">
+        <v>421</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.007398316714074964</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.17506146822135824</v>
+      </c>
+      <c r="G127" t="n">
+        <v>2.3655913978494625</v>
+      </c>
+      <c r="H127" t="n">
+        <v>11.606780759764032</v>
+      </c>
+      <c r="I127" t="s">
+        <v>561</v>
+      </c>
+      <c r="J127" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>135</v>
+      </c>
+      <c r="B128" t="s">
+        <v>184</v>
+      </c>
+      <c r="C128" t="s">
+        <v>315</v>
+      </c>
+      <c r="D128" t="s">
+        <v>398</v>
+      </c>
+      <c r="E128" t="n">
+        <v>8.651670912897704E-4</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0.1751482711477735</v>
+      </c>
+      <c r="G128" t="n">
+        <v>2.795698924731183</v>
+      </c>
+      <c r="H128" t="n">
+        <v>19.716912410184587</v>
+      </c>
+      <c r="I128" t="s">
+        <v>562</v>
+      </c>
+      <c r="J128" t="n">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>136</v>
+      </c>
+      <c r="B129" t="s">
+        <v>184</v>
+      </c>
+      <c r="C129" t="s">
+        <v>316</v>
+      </c>
+      <c r="D129" t="s">
+        <v>421</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.007398316714074964</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0.17620566082411224</v>
+      </c>
+      <c r="G129" t="n">
+        <v>2.3655913978494625</v>
+      </c>
+      <c r="H129" t="n">
+        <v>11.606780759764032</v>
+      </c>
+      <c r="I129" t="s">
+        <v>563</v>
+      </c>
+      <c r="J129" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>137</v>
+      </c>
+      <c r="B130" t="s">
+        <v>190</v>
+      </c>
+      <c r="C130" t="s">
+        <v>317</v>
+      </c>
+      <c r="D130" t="s">
+        <v>428</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.0073357848896245265</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.17651732390659017</v>
+      </c>
+      <c r="G130" t="n">
+        <v>1.8601008370453767</v>
+      </c>
+      <c r="H130" t="n">
+        <v>9.142378625829451</v>
+      </c>
+      <c r="I130" t="s">
+        <v>564</v>
+      </c>
+      <c r="J130" t="n">
+        <v>19.0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>138</v>
+      </c>
+      <c r="B131" t="s">
+        <v>187</v>
+      </c>
+      <c r="C131" t="s">
+        <v>279</v>
+      </c>
+      <c r="D131" t="s">
+        <v>429</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0.004942856831953141</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0.17732498884631892</v>
+      </c>
+      <c r="G131" t="n">
+        <v>3.370245546461242</v>
+      </c>
+      <c r="H131" t="n">
+        <v>17.895369601402983</v>
+      </c>
+      <c r="I131" t="s">
+        <v>527</v>
+      </c>
+      <c r="J131" t="n">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>139</v>
+      </c>
+      <c r="B132" t="s">
+        <v>184</v>
+      </c>
+      <c r="C132" t="s">
+        <v>318</v>
+      </c>
+      <c r="D132" t="s">
+        <v>421</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.007398316714074964</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0.1773649085926919</v>
+      </c>
+      <c r="G132" t="n">
+        <v>2.3655913978494625</v>
+      </c>
+      <c r="H132" t="n">
+        <v>11.606780759764032</v>
+      </c>
+      <c r="I132" t="s">
+        <v>565</v>
+      </c>
+      <c r="J132" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>140</v>
+      </c>
+      <c r="B133" t="s">
+        <v>184</v>
+      </c>
+      <c r="C133" t="s">
+        <v>319</v>
+      </c>
+      <c r="D133" t="s">
+        <v>404</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.0026335625316073782</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0.17771670120698677</v>
+      </c>
+      <c r="G133" t="n">
+        <v>2.5806451612903225</v>
+      </c>
+      <c r="H133" t="n">
+        <v>15.32752974102075</v>
+      </c>
+      <c r="I133" t="s">
+        <v>566</v>
+      </c>
+      <c r="J133" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>141</v>
+      </c>
+      <c r="B134" t="s">
+        <v>190</v>
+      </c>
+      <c r="C134" t="s">
+        <v>320</v>
+      </c>
+      <c r="D134" t="s">
+        <v>430</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.007881573254460128</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.17849445311571466</v>
+      </c>
+      <c r="G134" t="n">
+        <v>2.8203772254539046</v>
+      </c>
+      <c r="H134" t="n">
+        <v>13.659729225337816</v>
+      </c>
+      <c r="I134" t="s">
+        <v>567</v>
+      </c>
+      <c r="J134" t="n">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>142</v>
+      </c>
+      <c r="B135" t="s">
+        <v>184</v>
+      </c>
+      <c r="C135" t="s">
+        <v>321</v>
+      </c>
+      <c r="D135" t="s">
+        <v>421</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.007398316714074964</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0.17853951063635212</v>
+      </c>
+      <c r="G135" t="n">
+        <v>2.3655913978494625</v>
+      </c>
+      <c r="H135" t="n">
+        <v>11.606780759764032</v>
+      </c>
+      <c r="I135" t="s">
+        <v>568</v>
+      </c>
+      <c r="J135" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>143</v>
+      </c>
+      <c r="B136" t="s">
+        <v>184</v>
+      </c>
+      <c r="C136" t="s">
+        <v>322</v>
+      </c>
+      <c r="D136" t="s">
+        <v>421</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.007398316714074964</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.17972977404059448</v>
+      </c>
+      <c r="G136" t="n">
+        <v>2.3655913978494625</v>
+      </c>
+      <c r="H136" t="n">
+        <v>11.606780759764032</v>
+      </c>
+      <c r="I136" t="s">
+        <v>569</v>
+      </c>
+      <c r="J136" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>144</v>
+      </c>
+      <c r="B137" t="s">
+        <v>184</v>
+      </c>
+      <c r="C137" t="s">
+        <v>323</v>
+      </c>
+      <c r="D137" t="s">
+        <v>421</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.007398316714074964</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.18093601413482666</v>
+      </c>
+      <c r="G137" t="n">
+        <v>2.3655913978494625</v>
+      </c>
+      <c r="H137" t="n">
+        <v>11.606780759764032</v>
+      </c>
+      <c r="I137" t="s">
+        <v>570</v>
+      </c>
+      <c r="J137" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>145</v>
+      </c>
+      <c r="B138" t="s">
+        <v>184</v>
+      </c>
+      <c r="C138" t="s">
+        <v>324</v>
+      </c>
+      <c r="D138" t="s">
+        <v>404</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.0026335625316073782</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.18106984651277896</v>
+      </c>
+      <c r="G138" t="n">
+        <v>2.5806451612903225</v>
+      </c>
+      <c r="H138" t="n">
+        <v>15.32752974102075</v>
+      </c>
+      <c r="I138" t="s">
+        <v>571</v>
+      </c>
+      <c r="J138" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>146</v>
+      </c>
+      <c r="B139" t="s">
+        <v>184</v>
+      </c>
+      <c r="C139" t="s">
+        <v>325</v>
+      </c>
+      <c r="D139" t="s">
+        <v>421</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0.007398316714074964</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.18215855477087278</v>
+      </c>
+      <c r="G139" t="n">
+        <v>2.3655913978494625</v>
+      </c>
+      <c r="H139" t="n">
+        <v>11.606780759764032</v>
+      </c>
+      <c r="I139" t="s">
+        <v>572</v>
+      </c>
+      <c r="J139" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>147</v>
+      </c>
+      <c r="B140" t="s">
+        <v>187</v>
+      </c>
+      <c r="C140" t="s">
+        <v>320</v>
+      </c>
+      <c r="D140" t="s">
+        <v>431</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.006349291613329158</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.18222466930254683</v>
+      </c>
+      <c r="G140" t="n">
+        <v>2.7132951462164607</v>
+      </c>
+      <c r="H140" t="n">
+        <v>13.727678101690875</v>
+      </c>
+      <c r="I140" t="s">
+        <v>573</v>
+      </c>
+      <c r="J140" t="n">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>148</v>
+      </c>
+      <c r="B141" t="s">
+        <v>184</v>
+      </c>
+      <c r="C141" t="s">
+        <v>326</v>
+      </c>
+      <c r="D141" t="s">
+        <v>421</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0.007398316714074964</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.1833977286128515</v>
+      </c>
+      <c r="G141" t="n">
+        <v>2.3655913978494625</v>
+      </c>
+      <c r="H141" t="n">
+        <v>11.606780759764032</v>
+      </c>
+      <c r="I141" t="s">
+        <v>574</v>
+      </c>
+      <c r="J141" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>149</v>
+      </c>
+      <c r="B142" t="s">
+        <v>184</v>
+      </c>
+      <c r="C142" t="s">
+        <v>327</v>
+      </c>
+      <c r="D142" t="s">
+        <v>404</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0.0026335625316073782</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0.18455195894571702</v>
+      </c>
+      <c r="G142" t="n">
+        <v>2.5806451612903225</v>
+      </c>
+      <c r="H142" t="n">
+        <v>15.32752974102075</v>
+      </c>
+      <c r="I142" t="s">
+        <v>575</v>
+      </c>
+      <c r="J142" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>150</v>
+      </c>
+      <c r="B143" t="s">
+        <v>184</v>
+      </c>
+      <c r="C143" t="s">
+        <v>328</v>
+      </c>
+      <c r="D143" t="s">
+        <v>421</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0.007398316714074964</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0.1846538774389669</v>
+      </c>
+      <c r="G143" t="n">
+        <v>2.3655913978494625</v>
+      </c>
+      <c r="H143" t="n">
+        <v>11.606780759764032</v>
+      </c>
+      <c r="I143" t="s">
+        <v>576</v>
+      </c>
+      <c r="J143" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>151</v>
+      </c>
+      <c r="B144" t="s">
+        <v>190</v>
+      </c>
+      <c r="C144" t="s">
+        <v>209</v>
+      </c>
+      <c r="D144" t="s">
+        <v>432</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0.001924811086676736</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0.18526306709263582</v>
+      </c>
+      <c r="G144" t="n">
+        <v>2.5570416994492526</v>
+      </c>
+      <c r="H144" t="n">
+        <v>15.98899624056698</v>
+      </c>
+      <c r="I144" t="s">
+        <v>577</v>
+      </c>
+      <c r="J144" t="n">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>152</v>
+      </c>
+      <c r="B145" t="s">
+        <v>184</v>
+      </c>
+      <c r="C145" t="s">
+        <v>329</v>
+      </c>
+      <c r="D145" t="s">
+        <v>398</v>
+      </c>
+      <c r="E145" t="n">
+        <v>8.651670912897704E-4</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0.1854511106270543</v>
+      </c>
+      <c r="G145" t="n">
+        <v>2.795698924731183</v>
+      </c>
+      <c r="H145" t="n">
+        <v>19.716912410184587</v>
+      </c>
+      <c r="I145" t="s">
+        <v>578</v>
+      </c>
+      <c r="J145" t="n">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>153</v>
+      </c>
+      <c r="B146" t="s">
+        <v>184</v>
+      </c>
+      <c r="C146" t="s">
+        <v>330</v>
+      </c>
+      <c r="D146" t="s">
+        <v>421</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0.007398316714074964</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0.18592735245578737</v>
+      </c>
+      <c r="G146" t="n">
+        <v>2.3655913978494625</v>
+      </c>
+      <c r="H146" t="n">
+        <v>11.606780759764032</v>
+      </c>
+      <c r="I146" t="s">
+        <v>579</v>
+      </c>
+      <c r="J146" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>154</v>
+      </c>
+      <c r="B147" t="s">
+        <v>187</v>
+      </c>
+      <c r="C147" t="s">
+        <v>331</v>
+      </c>
+      <c r="D147" t="s">
+        <v>433</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0.011064838429661683</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0.18680050760664135</v>
+      </c>
+      <c r="G147" t="n">
+        <v>3.2258064516129035</v>
+      </c>
+      <c r="H147" t="n">
+        <v>14.528977121013499</v>
+      </c>
+      <c r="I147" t="s">
+        <v>580</v>
+      </c>
+      <c r="J147" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>155</v>
+      </c>
+      <c r="B148" t="s">
+        <v>184</v>
+      </c>
+      <c r="C148" t="s">
+        <v>332</v>
+      </c>
+      <c r="D148" t="s">
+        <v>421</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0.007398316714074964</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0.18721851462561923</v>
+      </c>
+      <c r="G148" t="n">
+        <v>2.3655913978494625</v>
+      </c>
+      <c r="H148" t="n">
+        <v>11.606780759764032</v>
+      </c>
+      <c r="I148" t="s">
+        <v>581</v>
+      </c>
+      <c r="J148" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>156</v>
+      </c>
+      <c r="B149" t="s">
+        <v>185</v>
+      </c>
+      <c r="C149" t="s">
+        <v>333</v>
+      </c>
+      <c r="D149" t="s">
+        <v>386</v>
+      </c>
+      <c r="E149" t="n">
+        <v>0.003577717282395619</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0.18763139525452577</v>
+      </c>
+      <c r="G149" t="n">
+        <v>4.887585532746823</v>
+      </c>
+      <c r="H149" t="n">
+        <v>27.53191746118345</v>
+      </c>
+      <c r="I149" t="s">
+        <v>582</v>
+      </c>
+      <c r="J149" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>157</v>
+      </c>
+      <c r="B150" t="s">
+        <v>184</v>
+      </c>
+      <c r="C150" t="s">
+        <v>334</v>
+      </c>
+      <c r="D150" t="s">
+        <v>404</v>
+      </c>
+      <c r="E150" t="n">
+        <v>0.0026335625316073782</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0.18817062480739777</v>
+      </c>
+      <c r="G150" t="n">
+        <v>2.5806451612903225</v>
+      </c>
+      <c r="H150" t="n">
+        <v>15.32752974102075</v>
+      </c>
+      <c r="I150" t="s">
+        <v>583</v>
+      </c>
+      <c r="J150" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>158</v>
+      </c>
+      <c r="B151" t="s">
+        <v>184</v>
+      </c>
+      <c r="C151" t="s">
+        <v>335</v>
+      </c>
+      <c r="D151" t="s">
+        <v>421</v>
+      </c>
+      <c r="E151" t="n">
+        <v>0.007398316714074964</v>
+      </c>
+      <c r="F151" t="n">
+        <v>0.18852773500761658</v>
+      </c>
+      <c r="G151" t="n">
+        <v>2.3655913978494625</v>
+      </c>
+      <c r="H151" t="n">
+        <v>11.606780759764032</v>
+      </c>
+      <c r="I151" t="s">
+        <v>584</v>
+      </c>
+      <c r="J151" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>159</v>
+      </c>
+      <c r="B152" t="s">
+        <v>184</v>
+      </c>
+      <c r="C152" t="s">
+        <v>336</v>
+      </c>
+      <c r="D152" t="s">
+        <v>421</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0.007398316714074964</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0.18985539511330402</v>
+      </c>
+      <c r="G152" t="n">
+        <v>2.3655913978494625</v>
+      </c>
+      <c r="H152" t="n">
+        <v>11.606780759764032</v>
+      </c>
+      <c r="I152" t="s">
+        <v>585</v>
+      </c>
+      <c r="J152" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>160</v>
+      </c>
+      <c r="B153" t="s">
+        <v>187</v>
+      </c>
+      <c r="C153" t="s">
+        <v>337</v>
+      </c>
+      <c r="D153" t="s">
+        <v>434</v>
+      </c>
+      <c r="E153" t="n">
+        <v>0.009926385751119298</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0.18992484737141588</v>
+      </c>
+      <c r="G153" t="n">
+        <v>12.903225806451614</v>
+      </c>
+      <c r="H153" t="n">
+        <v>59.51688825646637</v>
+      </c>
+      <c r="I153" t="s">
+        <v>586</v>
+      </c>
+      <c r="J153" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>161</v>
+      </c>
+      <c r="B154" t="s">
+        <v>184</v>
+      </c>
+      <c r="C154" t="s">
+        <v>338</v>
+      </c>
+      <c r="D154" t="s">
+        <v>421</v>
+      </c>
+      <c r="E154" t="n">
+        <v>0.007398316714074964</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0.19120188727722814</v>
+      </c>
+      <c r="G154" t="n">
+        <v>2.3655913978494625</v>
+      </c>
+      <c r="H154" t="n">
+        <v>11.606780759764032</v>
+      </c>
+      <c r="I154" t="s">
+        <v>587</v>
+      </c>
+      <c r="J154" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>162</v>
+      </c>
+      <c r="B155" t="s">
+        <v>184</v>
+      </c>
+      <c r="C155" t="s">
+        <v>339</v>
+      </c>
+      <c r="D155" t="s">
+        <v>404</v>
+      </c>
+      <c r="E155" t="n">
+        <v>0.0026335625316073782</v>
+      </c>
+      <c r="F155" t="n">
+        <v>0.19193403730354572</v>
+      </c>
+      <c r="G155" t="n">
+        <v>2.5806451612903225</v>
+      </c>
+      <c r="H155" t="n">
+        <v>15.32752974102075</v>
+      </c>
+      <c r="I155" t="s">
+        <v>588</v>
+      </c>
+      <c r="J155" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
         <v>163</v>
       </c>
-      <c r="E53" t="n">
-        <v>3.74038495081184E-4</v>
-      </c>
-      <c r="F53" t="n">
-        <v>0.1947137537251192</v>
-      </c>
-      <c r="G53" t="n">
-        <v>3.2388663967611335</v>
-      </c>
-      <c r="H53" t="n">
-        <v>25.55838651926125</v>
-      </c>
-      <c r="I53" t="s">
-        <v>211</v>
-      </c>
-      <c r="J53" t="n">
+      <c r="B156" t="s">
+        <v>189</v>
+      </c>
+      <c r="C156" t="s">
+        <v>340</v>
+      </c>
+      <c r="D156" t="s">
+        <v>381</v>
+      </c>
+      <c r="E156" t="n">
+        <v>2.634770385336515E-4</v>
+      </c>
+      <c r="F156" t="n">
+        <v>0.1920220656833252</v>
+      </c>
+      <c r="G156" t="n">
+        <v>3.010752688172043</v>
+      </c>
+      <c r="H156" t="n">
+        <v>24.813251758488942</v>
+      </c>
+      <c r="I156" t="s">
+        <v>589</v>
+      </c>
+      <c r="J156" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>164</v>
+      </c>
+      <c r="B157" t="s">
+        <v>184</v>
+      </c>
+      <c r="C157" t="s">
+        <v>341</v>
+      </c>
+      <c r="D157" t="s">
+        <v>381</v>
+      </c>
+      <c r="E157" t="n">
+        <v>2.634770385336515E-4</v>
+      </c>
+      <c r="F157" t="n">
+        <v>0.1920220656833252</v>
+      </c>
+      <c r="G157" t="n">
+        <v>3.010752688172043</v>
+      </c>
+      <c r="H157" t="n">
+        <v>24.813251758488942</v>
+      </c>
+      <c r="I157" t="s">
+        <v>590</v>
+      </c>
+      <c r="J157" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>165</v>
+      </c>
+      <c r="B158" t="s">
+        <v>184</v>
+      </c>
+      <c r="C158" t="s">
+        <v>342</v>
+      </c>
+      <c r="D158" t="s">
+        <v>421</v>
+      </c>
+      <c r="E158" t="n">
+        <v>0.007398316714074964</v>
+      </c>
+      <c r="F158" t="n">
+        <v>0.19256761504349407</v>
+      </c>
+      <c r="G158" t="n">
+        <v>2.3655913978494625</v>
+      </c>
+      <c r="H158" t="n">
+        <v>11.606780759764032</v>
+      </c>
+      <c r="I158" t="s">
+        <v>591</v>
+      </c>
+      <c r="J158" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>166</v>
+      </c>
+      <c r="B159" t="s">
+        <v>185</v>
+      </c>
+      <c r="C159" t="s">
+        <v>343</v>
+      </c>
+      <c r="D159" t="s">
+        <v>435</v>
+      </c>
+      <c r="E159" t="n">
+        <v>0.0016386187897231082</v>
+      </c>
+      <c r="F159" t="n">
+        <v>0.19335701718732676</v>
+      </c>
+      <c r="G159" t="n">
+        <v>4.105571847507331</v>
+      </c>
+      <c r="H159" t="n">
+        <v>26.332733814484772</v>
+      </c>
+      <c r="I159" t="s">
+        <v>592</v>
+      </c>
+      <c r="J159" t="n">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>167</v>
+      </c>
+      <c r="B160" t="s">
+        <v>184</v>
+      </c>
+      <c r="C160" t="s">
+        <v>344</v>
+      </c>
+      <c r="D160" t="s">
+        <v>421</v>
+      </c>
+      <c r="E160" t="n">
+        <v>0.007398316714074964</v>
+      </c>
+      <c r="F160" t="n">
+        <v>0.19395299356898685</v>
+      </c>
+      <c r="G160" t="n">
+        <v>2.3655913978494625</v>
+      </c>
+      <c r="H160" t="n">
+        <v>11.606780759764032</v>
+      </c>
+      <c r="I160" t="s">
+        <v>593</v>
+      </c>
+      <c r="J160" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>168</v>
+      </c>
+      <c r="B161" t="s">
+        <v>191</v>
+      </c>
+      <c r="C161" t="s">
+        <v>345</v>
+      </c>
+      <c r="D161" t="s">
+        <v>370</v>
+      </c>
+      <c r="E161" t="n">
+        <v>0.001819528200482701</v>
+      </c>
+      <c r="F161" t="n">
+        <v>0.194689517451649</v>
+      </c>
+      <c r="G161" t="n">
+        <v>7.590132827324478</v>
+      </c>
+      <c r="H161" t="n">
+        <v>47.887499370045376</v>
+      </c>
+      <c r="I161" t="s">
+        <v>594</v>
+      </c>
+      <c r="J161" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>169</v>
+      </c>
+      <c r="B162" t="s">
+        <v>184</v>
+      </c>
+      <c r="C162" t="s">
+        <v>346</v>
+      </c>
+      <c r="D162" t="s">
+        <v>421</v>
+      </c>
+      <c r="E162" t="n">
+        <v>0.007398316714074964</v>
+      </c>
+      <c r="F162" t="n">
+        <v>0.19535845004412442</v>
+      </c>
+      <c r="G162" t="n">
+        <v>2.3655913978494625</v>
+      </c>
+      <c r="H162" t="n">
+        <v>11.606780759764032</v>
+      </c>
+      <c r="I162" t="s">
+        <v>595</v>
+      </c>
+      <c r="J162" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>170</v>
+      </c>
+      <c r="B163" t="s">
+        <v>190</v>
+      </c>
+      <c r="C163" t="s">
+        <v>347</v>
+      </c>
+      <c r="D163" t="s">
+        <v>436</v>
+      </c>
+      <c r="E163" t="n">
+        <v>0.011698250182992089</v>
+      </c>
+      <c r="F163" t="n">
+        <v>0.19581853567182408</v>
+      </c>
+      <c r="G163" t="n">
+        <v>1.9354838709677418</v>
+      </c>
+      <c r="H163" t="n">
+        <v>8.609643881365963</v>
+      </c>
+      <c r="I163" t="s">
+        <v>596</v>
+      </c>
+      <c r="J163" t="n">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>171</v>
+      </c>
+      <c r="B164" t="s">
+        <v>184</v>
+      </c>
+      <c r="C164" t="s">
+        <v>348</v>
+      </c>
+      <c r="D164" t="s">
+        <v>404</v>
+      </c>
+      <c r="E164" t="n">
+        <v>0.0026335625316073782</v>
+      </c>
+      <c r="F164" t="n">
+        <v>0.19585105847300582</v>
+      </c>
+      <c r="G164" t="n">
+        <v>2.5806451612903225</v>
+      </c>
+      <c r="H164" t="n">
+        <v>15.32752974102075</v>
+      </c>
+      <c r="I164" t="s">
+        <v>597</v>
+      </c>
+      <c r="J164" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>172</v>
+      </c>
+      <c r="B165" t="s">
+        <v>187</v>
+      </c>
+      <c r="C165" t="s">
+        <v>349</v>
+      </c>
+      <c r="D165" t="s">
+        <v>437</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0.009571070364664806</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0.19620694247562853</v>
+      </c>
+      <c r="G165" t="n">
+        <v>2.1073107472848114</v>
+      </c>
+      <c r="H165" t="n">
+        <v>9.796909230206323</v>
+      </c>
+      <c r="I165" t="s">
+        <v>598</v>
+      </c>
+      <c r="J165" t="n">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>173</v>
+      </c>
+      <c r="B166" t="s">
+        <v>184</v>
+      </c>
+      <c r="C166" t="s">
+        <v>350</v>
+      </c>
+      <c r="D166" t="s">
+        <v>421</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0.007398316714074964</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0.19678442413203773</v>
+      </c>
+      <c r="G166" t="n">
+        <v>2.3655913978494625</v>
+      </c>
+      <c r="H166" t="n">
+        <v>11.606780759764032</v>
+      </c>
+      <c r="I166" t="s">
+        <v>599</v>
+      </c>
+      <c r="J166" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>174</v>
+      </c>
+      <c r="B167" t="s">
+        <v>185</v>
+      </c>
+      <c r="C167" t="s">
+        <v>351</v>
+      </c>
+      <c r="D167" t="s">
+        <v>438</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0.0029215730838094644</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0.19699749936543817</v>
+      </c>
+      <c r="G167" t="n">
+        <v>5.120327700972862</v>
+      </c>
+      <c r="H167" t="n">
+        <v>29.880353714446542</v>
+      </c>
+      <c r="I167" t="s">
+        <v>528</v>
+      </c>
+      <c r="J167" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>175</v>
+      </c>
+      <c r="B168" t="s">
+        <v>184</v>
+      </c>
+      <c r="C168" t="s">
+        <v>352</v>
+      </c>
+      <c r="D168" t="s">
+        <v>398</v>
+      </c>
+      <c r="E168" t="n">
+        <v>8.651670912897704E-4</v>
+      </c>
+      <c r="F168" t="n">
+        <v>0.1970418050412452</v>
+      </c>
+      <c r="G168" t="n">
+        <v>2.795698924731183</v>
+      </c>
+      <c r="H168" t="n">
+        <v>19.716912410184587</v>
+      </c>
+      <c r="I168" t="s">
+        <v>600</v>
+      </c>
+      <c r="J168" t="n">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>176</v>
+      </c>
+      <c r="B169" t="s">
+        <v>185</v>
+      </c>
+      <c r="C169" t="s">
+        <v>353</v>
+      </c>
+      <c r="D169" t="s">
+        <v>439</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0.0033483284210313676</v>
+      </c>
+      <c r="F169" t="n">
+        <v>0.1975513768408507</v>
+      </c>
+      <c r="G169" t="n">
+        <v>4.962779156327544</v>
+      </c>
+      <c r="H169" t="n">
+        <v>28.284337649990654</v>
+      </c>
+      <c r="I169" t="s">
+        <v>601</v>
+      </c>
+      <c r="J169" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>177</v>
+      </c>
+      <c r="B170" t="s">
+        <v>184</v>
+      </c>
+      <c r="C170" t="s">
+        <v>354</v>
+      </c>
+      <c r="D170" t="s">
+        <v>421</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0.007398316714074964</v>
+      </c>
+      <c r="F170" t="n">
+        <v>0.19823136842712624</v>
+      </c>
+      <c r="G170" t="n">
+        <v>2.3655913978494625</v>
+      </c>
+      <c r="H170" t="n">
+        <v>11.606780759764032</v>
+      </c>
+      <c r="I170" t="s">
+        <v>602</v>
+      </c>
+      <c r="J170" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>178</v>
+      </c>
+      <c r="B171" t="s">
+        <v>187</v>
+      </c>
+      <c r="C171" t="s">
+        <v>355</v>
+      </c>
+      <c r="D171" t="s">
+        <v>433</v>
+      </c>
+      <c r="E171" t="n">
+        <v>0.011064838429661683</v>
+      </c>
+      <c r="F171" t="n">
+        <v>0.19847553933205644</v>
+      </c>
+      <c r="G171" t="n">
+        <v>3.2258064516129035</v>
+      </c>
+      <c r="H171" t="n">
+        <v>14.528977121013499</v>
+      </c>
+      <c r="I171" t="s">
+        <v>603</v>
+      </c>
+      <c r="J171" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>179</v>
+      </c>
+      <c r="B172" t="s">
+        <v>184</v>
+      </c>
+      <c r="C172" t="s">
+        <v>356</v>
+      </c>
+      <c r="D172" t="s">
+        <v>421</v>
+      </c>
+      <c r="E172" t="n">
+        <v>0.007398316714074964</v>
+      </c>
+      <c r="F172" t="n">
+        <v>0.19969974893399386</v>
+      </c>
+      <c r="G172" t="n">
+        <v>2.3655913978494625</v>
+      </c>
+      <c r="H172" t="n">
+        <v>11.606780759764032</v>
+      </c>
+      <c r="I172" t="s">
+        <v>604</v>
+      </c>
+      <c r="J172" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>180</v>
+      </c>
+      <c r="B173" t="s">
+        <v>187</v>
+      </c>
+      <c r="C173" t="s">
+        <v>357</v>
+      </c>
+      <c r="D173" t="s">
+        <v>440</v>
+      </c>
+      <c r="E173" t="n">
+        <v>0.012537605497490294</v>
+      </c>
+      <c r="F173" t="n">
+        <v>0.19990515432109524</v>
+      </c>
+      <c r="G173" t="n">
+        <v>2.82258064516129</v>
+      </c>
+      <c r="H173" t="n">
+        <v>12.360144749281249</v>
+      </c>
+      <c r="I173" t="s">
+        <v>605</v>
+      </c>
+      <c r="J173" t="n">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>181</v>
+      </c>
+      <c r="B174" t="s">
+        <v>184</v>
+      </c>
+      <c r="C174" t="s">
+        <v>358</v>
+      </c>
+      <c r="D174" t="s">
+        <v>404</v>
+      </c>
+      <c r="E174" t="n">
+        <v>0.0026335625316073782</v>
+      </c>
+      <c r="F174" t="n">
+        <v>0.19993128885786013</v>
+      </c>
+      <c r="G174" t="n">
+        <v>2.5806451612903225</v>
+      </c>
+      <c r="H174" t="n">
+        <v>15.32752974102075</v>
+      </c>
+      <c r="I174" t="s">
+        <v>606</v>
+      </c>
+      <c r="J174" t="n">
         <v>12.0</v>
       </c>
     </row>
